--- a/public/preprocessing/@nieke_aereta.xlsx
+++ b/public/preprocessing/@nieke_aereta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15946</v>
+        <v>26813</v>
       </c>
       <c r="C2" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>di sini ngga ada minyak sawit bersyukur jd penyeimbang dgn gaya ngopiku yg msh gelas ngopi nescafe</t>
+          <t>derpinho iyes kisah dari kitab israiliyat yang sampai kepada para sahabat rahimahullah</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['di', 'sini', 'ngga', 'ada', 'minyak', 'sawit', 'bersyukur', 'jd', 'penyeimbang', 'dgn', 'gaya', 'ngopiku', 'yg', 'msh', 'gelas', 'ngopi', 'nescafe']</t>
+          <t>['derpinho', 'iyes', 'kisah', 'dari', 'kitab', 'israiliyat', 'yang', 'sampai', 'kepada', 'para', 'sahabat', 'rahimahullah']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['derpinho', 'iyes', 'kisah', 'dari', 'kitab', 'israiliyat', 'yang', 'sampai', 'kepada', 'para', 'sahabat', 'rahimahullah']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['ngga', 'minyak', 'sawit', 'bersyukur', 'penyeimbang', 'gaya', 'ngopiku', 'msh', 'gelas', 'ngopi', 'nescafe']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['ngga', 'minyak', 'sawit', 'syukur', 'imbang', 'gaya', 'ngopiku', 'msh', 'gelas', 'ngopi', 'nescafe']</t>
+          <t>['derpinho', 'iyes', 'kisah', 'kitab', 'israiliyat', 'sahabat', 'rahimahullah']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['derpinho', 'iyes', 'kisah', 'kitab', 'israiliyat', 'sahabat', 'rahimahullah']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15947</v>
+        <v>26814</v>
       </c>
       <c r="C3" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>heuheuheu di sini gak pake minyak sawit kalo goreng pake olive oil atau semi oil dari kedelai dan bi</t>
+          <t>rt derpinho aereta afrahimefraim rahimaruhama in hebrew</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['heuheuheu', 'di', 'sini', 'gak', 'pake', 'minyak', 'sawit', 'kalo', 'goreng', 'pake', 'olive', 'oil', 'atau', 'semi', 'oil', 'dari', 'kedelai', 'dan', 'bi']</t>
+          <t>['rt', 'derpinho', 'aereta', 'afrahimefraim', 'rahimaruhama', 'in', 'hebrew']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'derpinho', 'aereta', 'afrahimefraim', 'rahimaruhama', 'in', 'hebrew']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['heuheuheu', 'pake', 'minyak', 'sawit', 'goreng', 'pake', 'olive', 'oil', 'semi', 'oil', 'kedelai', 'bi']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['heuheuheu', 'pake', 'minyak', 'sawit', 'goreng', 'pake', 'olive', 'oil', 'semi', 'oil', 'kedelai', 'bi']</t>
+          <t>['derpinho', 'aereta', 'afrahimefraim', 'rahimaruhama', 'in', 'hebrew']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['derpinho', 'aereta', 'afrahimefraim', 'rahimaruhama', 'in', 'hebrew']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15948</v>
+        <v>26815</v>
       </c>
       <c r="C4" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>komit jalan kaki tuh asik seru amp nyenengin keluar rumah me timenya ibu domestik heuheu sambil menikmati cuac</t>
+          <t>keep walking happy walker after couples glass of coffee with gula biang aka nescafe kopi gelas instant wat</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['komit', 'jalan', 'kaki', 'tuh', 'asik', 'seru', 'amp', 'nyenengin', 'keluar', 'rumah', 'me', 'timenya', 'ibu', 'domestik', 'heuheu', 'sambil', 'menikmati', 'cuac']</t>
+          <t>['keep', 'walking', 'happy', 'walker', 'after', 'couples', 'glass', 'of', 'coffee', 'with', 'gula', 'biang', 'aka', 'nescafe', 'kopi', 'gelas', 'instant', 'wat']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['keep', 'walking', 'happy', 'walker', 'after', 'couples', 'glass', 'of', 'coffee', 'dengan', 'gula', 'biang', 'aka', 'nescafe', 'kopi', 'gelas', 'instan', 'buat']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['komit', 'jalan', 'kaki', 'asik', 'seru', 'nyenengin', 'rumah', 'me', 'timenya', 'domestik', 'heuheu', 'menikmati', 'cuac']</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['komit', 'jalan', 'kaki', 'asik', 'seru', 'nyenengin', 'rumah', 'me', 'timenya', 'domestik', 'heuheu', 'nikmat', 'cuac']</t>
+          <t>['keep', 'walking', 'happy', 'walker', 'after', 'couples', 'glass', 'of', 'coffee', 'gula', 'biang', 'aka', 'nescafe', 'kopi', 'gelas', 'instan']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['keep', 'walking', 'happy', 'walker', 'after', 'couples', 'glass', 'of', 'coffee', 'gula', 'biang', 'aka', 'nescafe', 'kopi', 'gelas', 'instan']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15949</v>
+        <v>26816</v>
       </c>
       <c r="C5" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>so pleased finished km walked in the afternoon pencapaian harian membakar kalori konon jln kaki dpt menurunk</t>
+          <t>dlm islam jg gak boleh haram andai pun kehidupan ranjangnya sampe gempa ketika diceritakan trus ada yg suaminya</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['so', 'pleased', 'finished', 'km', 'walked', 'in', 'the', 'afternoon', 'pencapaian', 'harian', 'membakar', 'kalori', 'konon', 'jln', 'kaki', 'dpt', 'menurunk']</t>
+          <t>['dlm', 'islam', 'jg', 'gak', 'boleh', 'haram', 'andai', 'pun', 'kehidupan', 'ranjangnya', 'sampe', 'gempa', 'ketika', 'diceritakan', 'trus', 'ada', 'yg', 'suaminya']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['dalam', 'islam', 'juga', 'tidak', 'boleh', 'haram', 'andai', 'pun', 'kehidupan', 'ranjangnya', 'sampai', 'gempa', 'ketika', 'diceritakan', 'terus', 'ada', 'yang', 'suaminya']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['so', 'pleased', 'finished', 'km', 'walked', 'in', 'the', 'afternoon', 'pencapaian', 'harian', 'membakar', 'kalori', 'konon', 'jln', 'kaki', 'dpt', 'menurunk']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['so', 'pleased', 'finished', 'km', 'walked', 'in', 'the', 'afternoon', 'capai', 'hari', 'bakar', 'kalori', 'konon', 'jln', 'kaki', 'dpt', 'menurunk']</t>
+          <t>['islam', 'haram', 'andai', 'kehidupan', 'ranjangnya', 'gempa', 'diceritakan', 'suaminya']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['islam', 'haram', 'andai', 'hidup', 'ranjang', 'gempa', 'cerita', 'suami']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15950</v>
+        <v>26817</v>
       </c>
       <c r="C6" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>andai kita balik ke aku bakal mention dirimu derpinho buat single ini mariah carey do you</t>
+          <t>males ah olah raga cape allah bersumpah sungguh kami telah menciptakan manusia berada dlm susah payah qs</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['andai', 'kita', 'balik', 'ke', 'aku', 'bakal', 'mention', 'dirimu', 'derpinho', 'buat', 'single', 'ini', 'mariah', 'carey', 'do', 'you']</t>
+          <t>['males', 'ah', 'olah', 'raga', 'cape', 'allah', 'bersumpah', 'sungguh', 'kami', 'telah', 'menciptakan', 'manusia', 'berada', 'dlm', 'susah', 'payah', 'qs']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['malas', 'ah', 'olah', 'raga', 'cape', 'allah', 'bersumpah', 'sungguh', 'kami', 'telah', 'menciptakan', 'manusia', 'berada', 'dalam', 'susah', 'payah', 'qs']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['andai', 'mention', 'dirimu', 'derpinho', 'single', 'mariah', 'carey', 'do', 'you']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['andai', 'mention', 'diri', 'derpinho', 'single', 'mariah', 'carey', 'do', 'you']</t>
+          <t>['malas', 'ah', 'olah', 'raga', 'cape', 'allah', 'bersumpah', 'sungguh', 'menciptakan', 'manusia', 'susah', 'payah', 'qs']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['malas', 'ah', 'olah', 'raga', 'cape', 'allah', 'sumpah', 'sungguh', 'cipta', 'manusia', 'susah', 'payah', 'qs']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15951</v>
+        <v>26818</v>
       </c>
       <c r="C7" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>oknum indon ngehek</t>
+          <t>itu ga cukup karakternya intinya tadi kita cerita aib sendiri aja meski bukan dgn maksud bangga maksudnya mencer</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['oknum', 'indon', 'ngehek']</t>
+          <t>['itu', 'ga', 'cukup', 'karakternya', 'intinya', 'tadi', 'kita', 'cerita', 'aib', 'sendiri', 'aja', 'meski', 'bukan', 'dgn', 'maksud', 'bangga', 'maksudnya', 'mencer']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['itu', 'tidak', 'cukup', 'karakternya', 'intinya', 'tadi', 'kita', 'cerita', 'aib', 'sendiri', 'saja', 'meski', 'bukan', 'dengan', 'maksud', 'bangga', 'maksudnya', 'mencer']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['oknum', 'indon', 'ngehek']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['oknum', 'indon', 'ngehek']</t>
+          <t>['karakternya', 'intinya', 'cerita', 'aib', 'maksud', 'bangga', 'maksudnya', 'mencer']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['karakter', 'inti', 'cerita', 'aib', 'maksud', 'bangga', 'maksud', 'mencer']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15952</v>
+        <v>26819</v>
       </c>
       <c r="C8" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>rt ready training at the ranch with</t>
+          <t>menceritakan aib sendiri yang sudah allah tutup saja haram meski kita menceritakannya dlm rangka menyesal apa lg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['rt', 'ready', 'training', 'at', 'the', 'ranch', 'with']</t>
+          <t>['menceritakan', 'aib', 'sendiri', 'yang', 'sudah', 'allah', 'tutup', 'saja', 'haram', 'meski', 'kita', 'menceritakannya', 'dlm', 'rangka', 'menyesal', 'apa', 'lg']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['menceritakan', 'aib', 'sendiri', 'yang', 'sudah', 'allah', 'tutup', 'saja', 'haram', 'meski', 'kita', 'menceritakannya', 'dalam', 'rangka', 'menyesal', 'apa', 'lagi']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['ready', 'training', 'at', 'the', 'ranch', 'with']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['ready', 'training', 'at', 'the', 'ranch', 'with']</t>
+          <t>['menceritakan', 'aib', 'allah', 'tutup', 'haram', 'menceritakannya', 'rangka', 'menyesal']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['cerita', 'aib', 'allah', 'tutup', 'haram', 'cerita', 'rangka', 'sesal']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15953</v>
+        <v>26820</v>
       </c>
       <c r="C9" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>rt ready training at the ranch with vr riders academy camilss</t>
+          <t>orangorang besar tak akan mengambil kembali hadiah mereka</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['rt', 'ready', 'training', 'at', 'the', 'ranch', 'with', 'vr', 'riders', 'academy', 'camilss']</t>
+          <t>['orangorang', 'besar', 'tak', 'akan', 'mengambil', 'kembali', 'hadiah', 'mereka']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['orangorang', 'besar', 'tak', 'akan', 'mengambil', 'kembali', 'hadiah', 'mereka']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['ready', 'training', 'at', 'the', 'ranch', 'with', 'vr', 'riders', 'academy', 'camilss']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['ready', 'training', 'at', 'the', 'ranch', 'with', 'vr', 'riders', 'academy', 'camilss']</t>
+          <t>['orangorang', 'mengambil', 'hadiah']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['orangorang', 'ambil', 'hadiah']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15954</v>
+        <v>26821</v>
       </c>
       <c r="C10" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ganteng bad boy</t>
+          <t>dari abdullah ibnu masud ra sepertinya engkau sdg merasakan rasa sakit yg amat berat beliau saw menjawab</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['ganteng', 'bad', 'boy']</t>
+          <t>['dari', 'abdullah', 'ibnu', 'masud', 'ra', 'sepertinya', 'engkau', 'sdg', 'merasakan', 'rasa', 'sakit', 'yg', 'amat', 'berat', 'beliau', 'saw', 'menjawab']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['dari', 'abdullah', 'ibnu', 'masud', 'ra', 'sepertinya', 'engkau', 'sedang', 'merasakan', 'rasa', 'sakit', 'yang', 'amat', 'berat', 'beliau', 'saw', 'menjawab']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['ganteng', 'bad', 'boy']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['ganteng', 'bad', 'boy']</t>
+          <t>['abdullah', 'ibnu', 'masud', 'ra', 'engkau', 'merasakan', 'sakit', 'berat', 'beliau', 'saw']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['abdullah', 'ibnu', 'masud', 'ra', 'engkau', 'rasa', 'sakit', 'berat', 'beliau', 'saw']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15955</v>
+        <v>26822</v>
       </c>
       <c r="C11" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>derpinho ajarin aku hebrew yak di sini byk ebrei soalnya</t>
+          <t>nanti di surga khamr menjadi halal bahkan ada sungai yg mengalirkan khamr yg lezat bebas diminum oleh penghunin</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['derpinho', 'ajarin', 'aku', 'hebrew', 'yak', 'di', 'sini', 'byk', 'ebrei', 'soalnya']</t>
+          <t>['nanti', 'di', 'surga', 'khamr', 'menjadi', 'halal', 'bahkan', 'ada', 'sungai', 'yg', 'mengalirkan', 'khamr', 'yg', 'lezat', 'bebas', 'diminum', 'oleh', 'penghunin']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['nanti', 'di', 'surga', 'khamr', 'menjadi', 'halal', 'bahkan', 'ada', 'sungai', 'yang', 'mengalirkan', 'khamr', 'yang', 'lezat', 'bebas', 'diminum', 'oleh', 'penghunin']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['derpinho', 'ajarin', 'hebrew', 'yak', 'byk', 'ebrei']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['derpinho', 'ajarin', 'hebrew', 'yak', 'byk', 'ebrei']</t>
+          <t>['surga', 'khamr', 'halal', 'sungai', 'mengalirkan', 'khamr', 'lezat', 'bebas', 'diminum', 'penghunin']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['surga', 'khamr', 'halal', 'sungai', 'alir', 'khamr', 'lezat', 'bebas', 'minum', 'penghunin']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15956</v>
+        <v>26823</v>
       </c>
       <c r="C12" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>januar salah woi</t>
+          <t>hind bint utbah bertanya pd rasulullah saw wahai rasul suamiku abu sufyan adlh org yg pelit apakah aku ber</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['januar', 'salah', 'woi']</t>
+          <t>['hind', 'bint', 'utbah', 'bertanya', 'pd', 'rasulullah', 'saw', 'wahai', 'rasul', 'suamiku', 'abu', 'sufyan', 'adlh', 'org', 'yg', 'pelit', 'apakah', 'aku', 'ber']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['hind', 'bint', 'utbah', 'bertanya', 'pada', 'rasulullah', 'saw', 'wahai', 'rasul', 'suamiku', 'abu', 'sufyan', 'adalah', 'orang', 'yang', 'pelit', 'apakah', 'aku', 'ber']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['januar', 'salah', 'woi']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['januar', 'salah', 'woi']</t>
+          <t>['hind', 'bint', 'utbah', 'rasulullah', 'saw', 'rasul', 'suamiku', 'abu', 'sufyan', 'orang', 'pelit', 'ber']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['hind', 'bint', 'utbah', 'rasulullah', 'saw', 'rasul', 'suami', 'abu', 'sufyan', 'orang', 'pelit', 'ber']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15957</v>
+        <v>26824</v>
       </c>
       <c r="C13" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>beda org sini ga ada yg ngomong di belakang</t>
+          <t>baru tahu kalau istri nabi ayub as rahimah adalah putri dari afrahim putra nabi tampan yusuf as artinya rahimah</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['beda', 'org', 'sini', 'ga', 'ada', 'yg', 'ngomong', 'di', 'belakang']</t>
+          <t>['baru', 'tahu', 'kalau', 'istri', 'nabi', 'ayub', 'as', 'rahimah', 'adalah', 'putri', 'dari', 'afrahim', 'putra', 'nabi', 'tampan', 'yusuf', 'as', 'artinya', 'rahimah']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['baru', 'tahu', 'kalau', 'istri', 'nabi', 'ayub', 'as', 'rahimah', 'adalah', 'putri', 'dari', 'afrahim', 'putra', 'nabi', 'tampan', 'yusuf', 'as', 'artinya', 'rahimah']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['beda', 'org', 'ngomong']</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['beda', 'org', 'ngomong']</t>
+          <t>['istri', 'nabi', 'ayub', 'as', 'rahimah', 'putri', 'afrahim', 'putra', 'nabi', 'tampan', 'yusuf', 'as', 'rahimah']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['istri', 'nabi', 'ayub', 'as', 'rahimah', 'putri', 'afrahim', 'putra', 'nabi', 'tampan', 'yusuf', 'as', 'rahimah']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15958</v>
+        <v>26825</v>
       </c>
       <c r="C14" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>akhiran  nya sama bedanya di aksen doang gak ada yg medok dan ngapak</t>
+          <t>selamat bekerja mas anies tetap fokus pada tugas dan amanah warga dki termasuk para buzzer dan haters buzzer dan</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['akhiran', 'nya', 'sama', 'bedanya', 'di', 'aksen', 'doang', 'gak', 'ada', 'yg', 'medok', 'dan', 'ngapak']</t>
+          <t>['selamat', 'bekerja', 'mas', 'anies', 'tetap', 'fokus', 'pada', 'tugas', 'dan', 'amanah', 'warga', 'dki', 'termasuk', 'para', 'buzzer', 'dan', 'haters', 'buzzer', 'dan']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['selamat', 'bekerja', 'mas', 'anies', 'tetap', 'fokus', 'pada', 'tugas', 'dan', 'amanah', 'warga', 'daerah, khusus, ibukota', 'termasuk', 'para', 'buzzer', 'dan', 'hater', 'buzzer', 'dan']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['akhiran', 'bedanya', 'aksen', 'doang', 'medok', 'ngapak']</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['akhir', 'beda', 'aksen', 'doang', 'medok', 'ngapak']</t>
+          <t>['selamat', 'mas', 'anies', 'fokus', 'tugas', 'amanah', 'warga', 'daerah, khusus, ibukota', 'buzzer', 'hater', 'buzzer']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['selamat', 'mas', 'anies', 'fokus', 'tugas', 'amanah', 'warga', 'daerah khusus ibukota', 'buzzer', 'hater', 'buzzer']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15959</v>
+        <v>26826</v>
       </c>
       <c r="C15" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>yasin</t>
+          <t>merketing tingkat dewa mah begini sorry to say bahkan kepada para distributorku di ina pun ngga semuanya bisa did</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['yasin']</t>
+          <t>['merketing', 'tingkat', 'dewa', 'mah', 'begini', 'sorry', 'to', 'say', 'bahkan', 'kepada', 'para', 'distributorku', 'di', 'ina', 'pun', 'ngga', 'semuanya', 'bisa', 'did']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['merketing', 'tingkat', 'dewa', 'adalah', 'begini', 'maaf', 'to', 'sayang', 'bahkan', 'kepada', 'para', 'distributorku', 'di', 'ina', 'pun', 'tidak', 'semuanya', 'bisa', 'did']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['yasin']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['yasin']</t>
+          <t>['merketing', 'tingkat', 'dewa', 'maaf', 'to', 'sayang', 'distributorku', 'ina', 'did']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['merketing', 'tingkat', 'dewa', 'maaf', 'to', 'sayang', 'distributor', 'ina', 'did']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15960</v>
+        <v>26827</v>
       </c>
       <c r="C16" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>kalau di italia dottore amp dottssa selain memang  dokter madicomedis juga dipakai untuk gelar lulus</t>
+          <t>apa pun makannya sambal terasi goreng jangan lupa</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['kalau', 'di', 'italia', 'dottore', 'amp', 'dottssa', 'selain', 'memang', 'dokter', 'madicomedis', 'juga', 'dipakai', 'untuk', 'gelar', 'lulus']</t>
+          <t>['apa', 'pun', 'makannya', 'sambal', 'terasi', 'goreng', 'jangan', 'lupa']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['apa', 'pun', 'makannya', 'sambal', 'terasi', 'goreng', 'jangan', 'lupa']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['italia', 'dottore', 'dottssa', 'dokter', 'madicomedis', 'dipakai', 'gelar', 'lulus']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['italia', 'dottore', 'dottssa', 'dokter', 'madicomedis', 'pakai', 'gelar', 'lulus']</t>
+          <t>['makannya', 'sambal', 'terasi', 'goreng', 'lupa']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['makan', 'sambal', 'terasi', 'goreng', 'lupa']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15961</v>
+        <v>26828</v>
       </c>
       <c r="C17" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>sekali kg kl sama org ina yg blm diwanti sejak awal kl texting begini pasti dikira marah tanda serunya full</t>
+          <t>rt aereta saya yg di italy amp alami masa pandemi tersulit pastilah ikhtiar proteksi mencegah covid tak</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['sekali', 'kg', 'kl', 'sama', 'org', 'ina', 'yg', 'blm', 'diwanti', 'sejak', 'awal', 'kl', 'texting', 'begini', 'pasti', 'dikira', 'marah', 'tanda', 'serunya', 'full']</t>
+          <t>['rt', 'aereta', 'saya', 'yg', 'di', 'italy', 'amp', 'alami', 'masa', 'pandemi', 'tersulit', 'pastilah', 'ikhtiar', 'proteksi', 'mencegah', 'covid', 'tak']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'aereta', 'saya', 'yang', 'di', 'italia', 'amp', 'alami', 'masa', 'pandemi', 'tersulit', 'pastilah', 'ikhtiar', 'proteksi', 'mencegah', 'covid', 'tak']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['kg', 'kl', 'org', 'ina', 'blm', 'diwanti', 'kl', 'texting', 'marah', 'tanda', 'serunya', 'full']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['kg', 'kl', 'org', 'ina', 'blm', 'diwanti', 'kl', 'texting', 'marah', 'tanda', 'seru', 'full']</t>
+          <t>['aereta', 'italia', 'alami', 'pandemi', 'tersulit', 'ikhtiar', 'proteksi', 'mencegah', 'covid']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['aereta', 'italia', 'alami', 'pandemi', 'sulit', 'ikhtiar', 'proteksi', 'cegah', 'covid']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15962</v>
+        <v>26829</v>
       </c>
       <c r="C18" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>investigasi terbaruku adalah  sudah tidak di twitter tp kl scroll down twitterku gercep sekali gengsimu ngg</t>
+          <t>covid nyata thx mas repeat borong bioce botol cegah gejala klinis covid demam radan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['investigasi', 'terbaruku', 'adalah', 'sudah', 'tidak', 'di', 'twitter', 'tp', 'kl', 'scroll', 'down', 'twitterku', 'gercep', 'sekali', 'gengsimu', 'ngg']</t>
+          <t>['covid', 'nyata', 'thx', 'mas', 'repeat', 'borong', 'bioce', 'botol', 'cegah', 'gejala', 'klinis', 'covid', 'demam', 'radan']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['covid', 'nyata', 'terima, kasih', 'mas', 'repeat', 'borong', 'bioce', 'botol', 'cegah', 'gejala', 'klinis', 'covid', 'demam', 'radan']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['investigasi', 'terbaruku', 'twitter', 'tp', 'kl', 'scroll', 'down', 'twitterku', 'gercep', 'gengsimu', 'ngg']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['investigasi', 'baru', 'twitter', 'tp', 'kl', 'scroll', 'down', 'twitterku', 'gercep', 'gengsi', 'ngg']</t>
+          <t>['covid', 'nyata', 'terima, kasih', 'mas', 'repeat', 'borong', 'bioce', 'botol', 'cegah', 'gejala', 'klinis', 'covid', 'demam', 'radan']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['covid', 'nyata', 'terima kasih', 'mas', 'repeat', 'borong', 'bioce', 'botol', 'cegah', 'gejala', 'klinis', 'covid', 'demam', 'rad']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15963</v>
+        <v>26830</v>
       </c>
       <c r="C19" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>puanas alhamdulillah</t>
+          <t>para nabi tak tahu ilmu ghaib kecuali yg allah beri kehendak atasnya sabda rasulullah saw untuk nubuat ini bendera</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['puanas', 'alhamdulillah']</t>
+          <t>['para', 'nabi', 'tak', 'tahu', 'ilmu', 'ghaib', 'kecuali', 'yg', 'allah', 'beri', 'kehendak', 'atasnya', 'sabda', 'rasulullah', 'saw', 'untuk', 'nubuat', 'ini', 'bendera']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['para', 'nabi', 'tak', 'tahu', 'ilmu', 'ghaib', 'kecuali', 'yang', 'allah', 'beri', 'kehendak', 'atasnya', 'sabda', 'rasulullah', 'saw', 'untuk', 'nubuat', 'ini', 'bendera']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['puanas', 'alhamdulillah']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['puanas', 'alhamdulillah']</t>
+          <t>['nabi', 'ilmu', 'ghaib', 'kecuali', 'allah', 'kehendak', 'atasnya', 'sabda', 'rasulullah', 'saw', 'nubuat', 'bendera']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['nabi', 'ilmu', 'ghaib', 'kecuali', 'allah', 'hendak', 'atas', 'sabda', 'rasulullah', 'saw', 'nubuat', 'bendera']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15964</v>
+        <v>26831</v>
       </c>
       <c r="C20" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ke tkp untuk investigasi terbaru</t>
+          <t>sama mas</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['ke', 'tkp', 'untuk', 'investigasi', 'terbaru']</t>
+          <t>['sama', 'mas']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['sama', 'mas']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['tkp', 'investigasi', 'terbaru']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['tkp', 'investigasi', 'baru']</t>
+          <t>['mas']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['mas']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15965</v>
+        <v>26832</v>
       </c>
       <c r="C21" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>saking menjiwainya mulut komat kamit dan kepala manggut mas</t>
+          <t>bencana amp musibah itu tidak selalu karena dosa amp kesalahan juga bukan krn murka allah krn tak ada manusia yg tah</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['saking', 'menjiwainya', 'mulut', 'komat', 'kamit', 'dan', 'kepala', 'manggut', 'mas']</t>
+          <t>['bencana', 'amp', 'musibah', 'itu', 'tidak', 'selalu', 'karena', 'dosa', 'amp', 'kesalahan', 'juga', 'bukan', 'krn', 'murka', 'allah', 'krn', 'tak', 'ada', 'manusia', 'yg', 'tah']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['bencana', 'amp', 'musibah', 'itu', 'tidak', 'selalu', 'karena', 'dosa', 'amp', 'kesalahan', 'juga', 'bukan', 'karena', 'murka', 'allah', 'karena', 'tak', 'ada', 'manusia', 'yang', 'tah']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['saking', 'menjiwainya', 'mulut', 'komat', 'kamit', 'kepala', 'manggut', 'mas']</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['saking', 'jiwa', 'mulut', 'komat', 'kamit', 'kepala', 'manggut', 'mas']</t>
+          <t>['bencana', 'musibah', 'dosa', 'kesalahan', 'murka', 'allah', 'manusia', 'tah']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['bencana', 'musibah', 'dosa', 'salah', 'murka', 'allah', 'manusia', 'tah']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15966</v>
+        <v>26833</v>
       </c>
       <c r="C22" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">bahasa italia dott dokter lakilaki dibaca dottore dottssa dokter perempuan dibaca dottoressa </t>
+          <t>rt aereta semua makhluk di dunia ini memiliki misi dan tujuan ltnabi yusuf asgt yg bejad pendosa sepertiku atau soleh kismin at</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['bahasa', 'italia', 'dott', 'dokter', 'lakilaki', 'dibaca', 'dottore', 'dottssa', 'dokter', 'perempuan', 'dibaca', 'dottoressa']</t>
+          <t>['rt', 'aereta', 'semua', 'makhluk', 'di', 'dunia', 'ini', 'memiliki', 'misi', 'dan', 'tujuan', 'ltnabi', 'yusuf', 'asgt', 'yg', 'bejad', 'pendosa', 'sepertiku', 'atau', 'soleh', 'kismin', 'at']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'aereta', 'semua', 'makhluk', 'di', 'dunia', 'ini', 'memiliki', 'misi', 'dan', 'tujuan', 'ltnabi', 'yusuf', 'asgt', 'yang', 'bejat', 'pendosa', 'sepertiku', 'atau', 'saleh', 'kismin', 'at']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['bahasa', 'italia', 'dott', 'dokter', 'lakilaki', 'dibaca', 'dottore', 'dottssa', 'dokter', 'perempuan', 'dibaca', 'dottoressa']</t>
+          <t>&lt;FreqDist with 22 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['bahasa', 'italia', 'dott', 'dokter', 'lakilaki', 'baca', 'dottore', 'dottssa', 'dokter', 'perempuan', 'baca', 'dottoressa']</t>
+          <t>['aereta', 'makhluk', 'dunia', 'memiliki', 'misi', 'tujuan', 'ltnabi', 'yusuf', 'asgt', 'bejat', 'pendosa', 'sepertiku', 'saleh', 'kismin', 'at']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['aereta', 'makhluk', 'dunia', 'milik', 'misi', 'tuju', 'ltnabi', 'yusuf', 'asgt', 'bejat', 'dosa', 'seperti', 'saleh', 'kismin', 'at']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15967</v>
+        <v>26834</v>
       </c>
       <c r="C23" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>rt azzurro anni fa portogalloitalia robertoampdino</t>
+          <t>rt aereta buongiorno kafilah maut tak hentihentinya melintas dan membawa serta manusia bersamanya ltnabi yakub asgt mesk</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['rt', 'azzurro', 'anni', 'fa', 'portogalloitalia', 'robertoampdino']</t>
+          <t>['rt', 'aereta', 'buongiorno', 'kafilah', 'maut', 'tak', 'hentihentinya', 'melintas', 'dan', 'membawa', 'serta', 'manusia', 'bersamanya', 'ltnabi', 'yakub', 'asgt', 'mesk']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'aereta', 'buongiorno', 'kafilah', 'maut', 'tak', 'hentihentinya', 'melintas', 'dan', 'membawa', 'serta', 'manusia', 'bersamanya', 'ltnabi', 'yakub', 'asgt', 'mesk']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['azzurro', 'anni', 'fa', 'portogalloitalia', 'robertoampdino']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['azzurro', 'anni', 'fa', 'portogalloitalia', 'robertoampdino']</t>
+          <t>['aereta', 'buongiorno', 'kafilah', 'maut', 'hentihentinya', 'melintas', 'membawa', 'manusia', 'bersamanya', 'ltnabi', 'yakub', 'asgt', 'mesk']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['aereta', 'buongiorno', 'kafilah', 'maut', 'hentihentinya', 'lintas', 'bawa', 'manusia', 'sama', 'ltnabi', 'yakub', 'asgt', 'mesk']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15968</v>
+        <v>26835</v>
       </c>
       <c r="C24" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>rt aereta rizki tak terbatas materi aset amp harta bhsa inanya anugerah karunia given hal di antaranya yg sdh tercatat se</t>
+          <t>juga sebenarnya istirahat makanya normal kalau di dunia sedikit istirahat berpayah berlelah bercape berlet</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['rt', 'aereta', 'rizki', 'tak', 'terbatas', 'materi', 'aset', 'amp', 'harta', 'bhsa', 'inanya', 'anugerah', 'karunia', 'given', 'hal', 'di', 'antaranya', 'yg', 'sdh', 'tercatat', 'se']</t>
+          <t>['juga', 'sebenarnya', 'istirahat', 'makanya', 'normal', 'kalau', 'di', 'dunia', 'sedikit', 'istirahat', 'berpayah', 'berlelah', 'bercape', 'berlet']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>['juga', 'sebenarnya', 'istirahat', 'makanya', 'normal', 'kalau', 'di', 'dunia', 'sedikit', 'istirahat', 'berpayah', 'berlelah', 'bercape', 'berlet']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['aereta', 'rizki', 'terbatas', 'materi', 'aset', 'harta', 'bhsa', 'inanya', 'anugerah', 'karunia', 'given', 'tercatat']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['aereta', 'rizki', 'batas', 'materi', 'aset', 'harta', 'bhsa', 'ina', 'anugerah', 'karunia', 'given', 'catat']</t>
+          <t>['istirahat', 'normal', 'dunia', 'istirahat', 'berpayah', 'berlelah', 'bercape', 'berlet']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['istirahat', 'normal', 'dunia', 'istirahat', 'payah', 'lelah', 'cape', 'berlet']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15969</v>
+        <v>26836</v>
       </c>
       <c r="C25" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>rizki tak terbatas materi aset amp harta bhsa inanya anugerah karunia given hal di antaranya yg sdh terca</t>
+          <t>rt aereta alhamdulillah</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['rizki', 'tak', 'terbatas', 'materi', 'aset', 'amp', 'harta', 'bhsa', 'inanya', 'anugerah', 'karunia', 'given', 'hal', 'di', 'antaranya', 'yg', 'sdh', 'terca']</t>
+          <t>['rt', 'aereta', 'alhamdulillah']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'aereta', 'alhamdulillah']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['rizki', 'terbatas', 'materi', 'aset', 'harta', 'bhsa', 'inanya', 'anugerah', 'karunia', 'given', 'terca']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['rizki', 'batas', 'materi', 'aset', 'harta', 'bhsa', 'ina', 'anugerah', 'karunia', 'given', 'terca']</t>
+          <t>['aereta', 'alhamdulillah']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['aereta', 'alhamdulillah']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15970</v>
+        <v>26837</v>
       </c>
       <c r="C26" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>rt inter isnt  surprise the surprise is that they werent able to show this before buffon</t>
+          <t>congrats hamdallah nanti hari ini dihubungin ya buat bukti ss</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['rt', 'inter', 'isnt', 'surprise', 'the', 'surprise', 'is', 'that', 'they', 'werent', 'able', 'to', 'show', 'this', 'before', 'buffon']</t>
+          <t>['congrats', 'hamdallah', 'nanti', 'hari', 'ini', 'dihubungin', 'ya', 'buat', 'bukti', 'ss']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['selamat', 'hamdallah', 'nanti', 'hari', 'ini', 'dihubungin', 'ya', 'buat', 'bukti', 'screenshoot']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['inter', 'isnt', 'surprise', 'the', 'surprise', 'is', 'that', 'they', 'werent', 'able', 'to', 'show', 'this', 'before', 'buffon']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['inter', 'isnt', 'surprise', 'the', 'surprise', 'is', 'that', 'they', 'werent', 'able', 'to', 'show', 'this', 'before', 'buffon']</t>
+          <t>['selamat', 'hamdallah', 'dihubungin', 'bukti', 'screenshoot']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['selamat', 'hamdallah', 'dihubungin', 'bukti', 'screenshoot']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15971</v>
+        <v>26838</v>
       </c>
       <c r="C27" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>kalau bagi manusia ga ada yg ga mungkin krn semua terjadi sesuai kehendaknya tp untuk allah gak</t>
+          <t>rt aereta alhamdulillah grazie</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['kalau', 'bagi', 'manusia', 'ga', 'ada', 'yg', 'ga', 'mungkin', 'krn', 'semua', 'terjadi', 'sesuai', 'kehendaknya', 'tp', 'untuk', 'allah', 'gak']</t>
+          <t>['rt', 'aereta', 'alhamdulillah', 'grazie']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'aereta', 'alhamdulillah', 'grazie']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['manusia', 'sesuai', 'kehendaknya', 'tp', 'allah']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['manusia', 'sesuai', 'hendak', 'tp', 'allah']</t>
+          <t>['aereta', 'alhamdulillah', 'grazie']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['aereta', 'alhamdulillah', 'grazie']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15972</v>
+        <v>26839</v>
       </c>
       <c r="C28" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>tar ya abis covid</t>
+          <t>semua makhluk di dunia ini memiliki misi dan tujuan ltnabi yusuf asgt yg bejad pendosa sepertiku atau soleh kis</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['tar', 'ya', 'abis', 'covid']</t>
+          <t>['semua', 'makhluk', 'di', 'dunia', 'ini', 'memiliki', 'misi', 'dan', 'tujuan', 'ltnabi', 'yusuf', 'asgt', 'yg', 'bejad', 'pendosa', 'sepertiku', 'atau', 'soleh', 'kis']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['semua', 'makhluk', 'di', 'dunia', 'ini', 'memiliki', 'misi', 'dan', 'tujuan', 'ltnabi', 'yusuf', 'asgt', 'yang', 'bejat', 'pendosa', 'sepertiku', 'atau', 'saleh', 'kartu, indonesia, sehat']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['tar', 'abis', 'covid']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['tar', 'abis', 'covid']</t>
+          <t>['makhluk', 'dunia', 'memiliki', 'misi', 'tujuan', 'ltnabi', 'yusuf', 'asgt', 'bejat', 'pendosa', 'sepertiku', 'saleh', 'kartu, indonesia, sehat']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['makhluk', 'dunia', 'milik', 'misi', 'tuju', 'ltnabi', 'yusuf', 'asgt', 'bejat', 'dosa', 'seperti', 'saleh', 'kartu indonesia sehat']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15973</v>
+        <v>26840</v>
       </c>
       <c r="C29" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ya rabb kangennya cabut aja deh please aku ridho cape kangen tuh</t>
+          <t>buongiorno kafilah maut tak hentihentinya melintas dan membawa serta manusia bersamanya ltnabi yakub asgt</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['ya', 'rabb', 'kangennya', 'cabut', 'aja', 'deh', 'please', 'aku', 'ridho', 'cape', 'kangen', 'tuh']</t>
+          <t>['buongiorno', 'kafilah', 'maut', 'tak', 'hentihentinya', 'melintas', 'dan', 'membawa', 'serta', 'manusia', 'bersamanya', 'ltnabi', 'yakub', 'asgt']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['buongiorno', 'kafilah', 'maut', 'tak', 'hentihentinya', 'melintas', 'dan', 'membawa', 'serta', 'manusia', 'bersamanya', 'ltnabi', 'yakub', 'asgt']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['rabb', 'kangennya', 'cabut', 'deh', 'please', 'ridho', 'cape', 'kangen']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['rabb', 'kangen', 'cabut', 'deh', 'please', 'ridho', 'cape', 'kangen']</t>
+          <t>['buongiorno', 'kafilah', 'maut', 'hentihentinya', 'melintas', 'membawa', 'manusia', 'bersamanya', 'ltnabi', 'yakub', 'asgt']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['buongiorno', 'kafilah', 'maut', 'hentihentinya', 'lintas', 'bawa', 'manusia', 'sama', 'ltnabi', 'yakub', 'asgt']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15974</v>
+        <v>26841</v>
       </c>
       <c r="C30" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>beda dgn mimpinya para nabi yg notabene wahyu mimpinya kita mah sering nggak jelas ntar tempatnya tau pindah da</t>
+          <t xml:space="preserve">hamdallah ini orang pemenang yang menjawab pertanyaan dgn benar baju seharusnya bajukaos tp team </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['beda', 'dgn', 'mimpinya', 'para', 'nabi', 'yg', 'notabene', 'wahyu', 'mimpinya', 'kita', 'mah', 'sering', 'nggak', 'jelas', 'ntar', 'tempatnya', 'tau', 'pindah', 'da']</t>
+          <t>['hamdallah', 'ini', 'orang', 'pemenang', 'yang', 'menjawab', 'pertanyaan', 'dgn', 'benar', 'baju', 'seharusnya', 'bajukaos', 'tp', 'team']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['hamdallah', 'ini', 'orang', 'pemenang', 'yang', 'menjawab', 'pertanyaan', 'dengan', 'benar', 'baju', 'seharusnya', 'bajukaos', 'tetapi', 'tim']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['beda', 'mimpinya', 'nabi', 'notabene', 'wahyu', 'mimpinya', 'mah', 'nggak', 'ntar', 'tempatnya', 'pindah', 'da']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['beda', 'mimpi', 'nabi', 'notabene', 'wahyu', 'mimpi', 'mah', 'nggak', 'ntar', 'tempat', 'pindah', 'da']</t>
+          <t>['hamdallah', 'orang', 'pemenang', 'baju', 'bajukaos', 'tim']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['hamdallah', 'orang', 'menang', 'baju', 'bajukaos', 'tim']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15975</v>
+        <v>26842</v>
       </c>
       <c r="C31" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>susana sama mas mandeg jg bisa</t>
+          <t xml:space="preserve">hamdallah ini orang pemenang yang menjawab pertanyaan dgn benar baju seharusnya bajukaos tp team </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['susana', 'sama', 'mas', 'mandeg', 'jg', 'bisa']</t>
+          <t>['hamdallah', 'ini', 'orang', 'pemenang', 'yang', 'menjawab', 'pertanyaan', 'dgn', 'benar', 'baju', 'seharusnya', 'bajukaos', 'tp', 'team']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['hamdallah', 'ini', 'orang', 'pemenang', 'yang', 'menjawab', 'pertanyaan', 'dengan', 'benar', 'baju', 'seharusnya', 'bajukaos', 'tetapi', 'tim']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['susana', 'mas', 'mandeg', 'jg']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['susana', 'mas', 'mandeg', 'jg']</t>
+          <t>['hamdallah', 'orang', 'pemenang', 'baju', 'bajukaos', 'tim']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['hamdallah', 'orang', 'menang', 'baju', 'bajukaos', 'tim']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15976</v>
+        <v>26843</v>
       </c>
       <c r="C32" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>id sehat untuk romo amp ibu sayang</t>
+          <t>hahahaha berarti aku yg minta maaf</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['id', 'sehat', 'untuk', 'romo', 'amp', 'ibu', 'sayang']</t>
+          <t>['hahahaha', 'berarti', 'aku', 'yg', 'minta', 'maaf']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['haha', 'berarti', 'aku', 'yang', 'meminta', 'maaf']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['id', 'sehat', 'romo', 'sayang']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['id', 'sehat', 'romo', 'sayang']</t>
+          <t>['haha', 'maaf']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['haha', 'maaf']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15977</v>
+        <v>26844</v>
       </c>
       <c r="C33" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">tadi sore yg biasanya jalan kaki cepat terpaksa ngga krn hrs ke dokter gigi tp stlh itu mumpung sambil nungguin </t>
+          <t>ga nyambung mas masa komen di sini heuheu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['tadi', 'sore', 'yg', 'biasanya', 'jalan', 'kaki', 'cepat', 'terpaksa', 'ngga', 'krn', 'hrs', 'ke', 'dokter', 'gigi', 'tp', 'stlh', 'itu', 'mumpung', 'sambil', 'nungguin']</t>
+          <t>['ga', 'nyambung', 'mas', 'masa', 'komen', 'di', 'sini', 'heuheu']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['tidak', 'menyambung', 'mas', 'masa', 'komen', 'di', 'sini', 'heuheu']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['sore', 'jalan', 'kaki', 'cepat', 'terpaksa', 'ngga', 'hrs', 'dokter', 'gigi', 'tp', 'stlh', 'mumpung', 'nungguin']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['sore', 'jalan', 'kaki', 'cepat', 'paksa', 'ngga', 'hrs', 'dokter', 'gigi', 'tp', 'stlh', 'mumpung', 'nungguin']</t>
+          <t>['menyambung', 'mas', 'komen', 'heuheu']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['sambung', 'mas', 'komen', 'heuheu']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15978</v>
+        <v>26845</v>
       </c>
       <c r="C34" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>mah bebas coba aja di sini gelar pesta kawinan meski cm org dekat khas inner circle bule udah digeruduk sa</t>
+          <t>bodoh tak berujung</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['mah', 'bebas', 'coba', 'aja', 'di', 'sini', 'gelar', 'pesta', 'kawinan', 'meski', 'cm', 'org', 'dekat', 'khas', 'inner', 'circle', 'bule', 'udah', 'digeruduk', 'sa']</t>
+          <t>['bodoh', 'tak', 'berujung']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['bodoh', 'tak', 'berujung']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['mah', 'bebas', 'coba', 'gelar', 'pesta', 'kawinan', 'cm', 'org', 'khas', 'inner', 'circle', 'bule', 'udah', 'digeruduk', 'sa']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['mah', 'bebas', 'coba', 'gelar', 'pesta', 'kawin', 'cm', 'org', 'khas', 'inner', 'circle', 'bule', 'udah', 'digeruduk', 'sa']</t>
+          <t>['bodoh', 'berujung']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['bodoh', 'ujung']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15979</v>
+        <v>26846</v>
       </c>
       <c r="C35" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>aku mah jam sakiyeu keur gawe</t>
+          <t>rt accorcia il cagliari con simeone</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['aku', 'mah', 'jam', 'sakiyeu', 'keur', 'gawe']</t>
+          <t>['rt', 'accorcia', 'il', 'cagliari', 'con', 'simeone']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['rt', 'accorcia', 'il', 'cagliari', 'con', 'simeone']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>['mah', 'jam', 'sakiyeu', 'keur', 'gawe']</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['mah', 'jam', 'sakiyeu', 'keur', 'gawe']</t>
+          <t>['accorcia', 'il', 'cagliari', 'con', 'simeone']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['accorcia', 'il', 'cagliari', 'con', 'simeone']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15980</v>
+        <v>26847</v>
       </c>
       <c r="C36" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>teu ngarti beneran nyarios naun sih</t>
+          <t>rt en earns points thanks to an impressive hattrick by https</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['teu', 'ngarti', 'beneran', 'nyarios', 'naun', 'sih']</t>
+          <t>['rt', 'en', 'earns', 'points', 'thanks', 'to', 'an', 'impressive', 'hattrick', 'by', 'https']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'dan', 'earns', 'points', 'terima, kasih', 'to', 'an', 'impressive', 'hattrick', 'by', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['teu', 'ngarti', 'beneran', 'nyarios', 'naun']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['teu', 'ngarti', 'beneran', 'nyarios', 'naun']</t>
+          <t>['earns', 'points', 'terima, kasih', 'to', 'an', 'impressive', 'hattrick', 'by', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['earns', 'points', 'terima kasih', 'to', 'an', 'impressive', 'hattrick', 'by', 'hypertext transfer protocol over secure socket layer']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15981</v>
+        <v>26848</v>
       </c>
       <c r="C37" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>yasin ilfil</t>
+          <t>rt gol di destro di sinistro  di testa per prima tripletta perfetta per un giocatore della juve in da</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['yasin', 'ilfil']</t>
+          <t>['rt', 'gol', 'di', 'destro', 'di', 'sinistro', 'di', 'testa', 'per', 'prima', 'tripletta', 'perfetta', 'per', 'un', 'giocatore', 'della', 'juve', 'in', 'da']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'gol', 'di', 'destro', 'di', 'sinistro', 'di', 'testa', 'per', 'prima', 'tripletta', 'perfetta', 'per', 'ujian, nasional', 'giocatore', 'della', 'juventus', 'in', 'dan']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['yasin', 'ilfil']</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['yasin', 'ilfil']</t>
+          <t>['gol', 'destro', 'sinistro', 'testa', 'prima', 'tripletta', 'perfetta', 'ujian, nasional', 'giocatore', 'della', 'juventus', 'in']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['gol', 'destro', 'sinistro', 'testa', 'prima', 'tripletta', 'perfetta', 'uji nasional', 'giocatore', 'della', 'juventus', 'in']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15982</v>
+        <v>26849</v>
       </c>
       <c r="C38" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>aku ngakak baca usernamemu</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['aku', 'ngakak', 'baca', 'usernamemu']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['ngakak', 'baca', 'usernamemu']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['ngakak', 'baca', 'usernamemu']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15983</v>
+        <v>26850</v>
       </c>
       <c r="C39" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>yasin saya perempuan pantura</t>
+          <t>rt seriea ft cagliari juventus ronaldo  simeone</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['yasin', 'saya', 'perempuan', 'pantura']</t>
+          <t>['rt', 'seriea', 'ft', 'cagliari', 'juventus', 'ronaldo', 'simeone']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'seriea', 'ft', 'cagliari', 'juventus', 'ronaldo', 'simeone']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['yasin', 'perempuan', 'pantura']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['yasin', 'perempuan', 'pantura']</t>
+          <t>['seriea', 'ft', 'cagliari', 'juventus', 'ronaldo', 'simeone']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['seriea', 'ft', 'cagliari', 'juventus', 'ronaldo', 'simeone']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15984</v>
+        <v>26851</v>
       </c>
       <c r="C40" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>la spezia italia di malam hari kota antik yang cantik dan juga squadra calcionya serie  heuheu</t>
+          <t>aku blm pernah ngerasain enak ci</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['la', 'spezia', 'italia', 'di', 'malam', 'hari', 'kota', 'antik', 'yang', 'cantik', 'dan', 'juga', 'squadra', 'calcionya', 'serie', 'heuheu']</t>
+          <t>['aku', 'blm', 'pernah', 'ngerasain', 'enak', 'ci']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['aku', 'belum', 'pernah', 'merasakan', 'enak', 'ci']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['la', 'spezia', 'italia', 'malam', 'kota', 'antik', 'cantik', 'squadra', 'calcionya', 'serie', 'heuheu']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['la', 'spezia', 'italia', 'malam', 'kota', 'antik', 'cantik', 'squadra', 'calcionya', 'serie', 'heuheu']</t>
+          <t>['merasakan', 'enak', 'ci']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['rasa', 'enak', 'ci']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15985</v>
+        <v>26852</v>
       </c>
       <c r="C41" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>au ah gelap</t>
+          <t>gitu dong penginat hati anak lama biar ga asing banget kita di antara twitlwnd yang makin aneh bener gak derpinho</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['au', 'ah', 'gelap']</t>
+          <t>['gitu', 'dong', 'penginat', 'hati', 'anak', 'lama', 'biar', 'ga', 'asing', 'banget', 'kita', 'di', 'antara', 'twitlwnd', 'yang', 'makin', 'aneh', 'bener', 'gak', 'derpinho']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['begitu', 'dong', 'penginat', 'hati', 'anak', 'lama', 'biar', 'tidak', 'asing', 'banget', 'kita', 'di', 'antara', 'twitlwnd', 'yang', 'makin', 'aneh', 'benar', 'tidak', 'derpinho']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['au', 'ah', 'gelap']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['au', 'ah', 'gelap']</t>
+          <t>['penginat', 'hati', 'anak', 'asing', 'banget', 'twitlwnd', 'aneh', 'derpinho']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['penginat', 'hati', 'anak', 'asing', 'banget', 'twitlwnd', 'aneh', 'derpinho']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15986</v>
+        <v>26853</v>
       </c>
       <c r="C42" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>rt vittoria importante felice di aver dato il mio contributo avanti cos ragazzi</t>
+          <t>hepi kl pas waktunya jalan kaki cepat booster benar terbangun apa kg kl outfitnya jg fit keren sm kita happy wa</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['rt', 'vittoria', 'importante', 'felice', 'di', 'aver', 'dato', 'il', 'mio', 'contributo', 'avanti', 'cos', 'ragazzi']</t>
+          <t>['hepi', 'kl', 'pas', 'waktunya', 'jalan', 'kaki', 'cepat', 'booster', 'benar', 'terbangun', 'apa', 'kg', 'kl', 'outfitnya', 'jg', 'fit', 'keren', 'sm', 'kita', 'happy', 'wa']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['senang', 'kalau', 'pas', 'waktunya', 'jalan', 'kaki', 'cepat', 'booster', 'benar', 'terbangun', 'apa', 'kg', 'kalau', 'outfitnya', 'juga', 'fit', 'keren', 'sama', 'kita', 'happy', 'wa']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['vittoria', 'importante', 'felice', 'aver', 'dato', 'il', 'mio', 'contributo', 'avanti', 'cos', 'ragazzi']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['vittoria', 'importante', 'felice', 'aver', 'dato', 'il', 'mio', 'contributo', 'avanti', 'cos', 'ragazzi']</t>
+          <t>['senang', 'pas', 'jalan', 'kaki', 'cepat', 'booster', 'terbangun', 'kg', 'outfitnya', 'fit', 'keren', 'happy', 'wa']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['senang', 'pas', 'jalan', 'kaki', 'cepat', 'booster', 'bangun', 'kg', 'outfitnya', 'fit', 'keren', 'happy', 'wa']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15987</v>
+        <v>26854</v>
       </c>
       <c r="C43" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>rt en every point counts the updated league table after matchday</t>
+          <t>kalau terbalik jadi seperti pasukan persia</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['rt', 'en', 'every', 'point', 'counts', 'the', 'updated', 'league', 'table', 'after', 'matchday']</t>
+          <t>['kalau', 'terbalik', 'jadi', 'seperti', 'pasukan', 'persia']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['kalau', 'terbalik', 'jadi', 'seperti', 'pasukan', 'persia']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['en', 'every', 'point', 'counts', 'the', 'updated', 'league', 'table', 'after', 'matchday']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['en', 'every', 'point', 'counts', 'the', 'updated', 'league', 'table', 'after', 'matchday']</t>
+          <t>['terbalik', 'pasukan', 'persia']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['balik', 'pasu', 'sia']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15988</v>
+        <v>26855</v>
       </c>
       <c r="C44" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>rt ft three important points</t>
+          <t>rasulullah saw mngatakan ini kpd sahabat mulia amr ibnu ash saat beliau saw memberi tugas kpd amr ra utk memimpin</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['rt', 'ft', 'three', 'important', 'points']</t>
+          <t>['rasulullah', 'saw', 'mngatakan', 'ini', 'kpd', 'sahabat', 'mulia', 'amr', 'ibnu', 'ash', 'saat', 'beliau', 'saw', 'memberi', 'tugas', 'kpd', 'amr', 'ra', 'utk', 'memimpin']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rasulullah', 'saw', 'mngatakan', 'ini', 'kepada', 'sahabat', 'mulia', 'amr', 'ibnu', 'ash', 'saat', 'beliau', 'saw', 'memberi', 'tugas', 'kepada', 'amr', 'ra', 'untuk', 'memimpin']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['ft', 'three', 'important', 'points']</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['ft', 'three', 'important', 'points']</t>
+          <t>['rasulullah', 'saw', 'mngatakan', 'sahabat', 'mulia', 'amr', 'ibnu', 'ash', 'beliau', 'saw', 'tugas', 'amr', 'ra', 'memimpin']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['rasulullah', 'saw', 'mngatakan', 'sahabat', 'mulia', 'amr', 'ibnu', 'ash', 'beliau', 'saw', 'tugas', 'amr', 'ra', 'pimpin']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15989</v>
+        <v>26856</v>
       </c>
       <c r="C45" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>rt seriea ft juventus crotone ronaldo mckennie</t>
+          <t>tp semua anak beda sih neng jangan pernah samain anak kita sm org lain tolok ukurnya anakku berhenti</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['rt', 'seriea', 'ft', 'juventus', 'crotone', 'ronaldo', 'mckennie']</t>
+          <t>['tp', 'semua', 'anak', 'beda', 'sih', 'neng', 'jangan', 'pernah', 'samain', 'anak', 'kita', 'sm', 'org', 'lain', 'tolok', 'ukurnya', 'anakku', 'berhenti']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['tetapi', 'semua', 'anak', 'beda', 'sih', 'neng', 'jangan', 'pernah', 'samakan', 'anak', 'kita', 'sama', 'orang', 'lain', 'tolok', 'ukurnya', 'anakku', 'berhenti']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['seriea', 'ft', 'juventus', 'crotone', 'ronaldo', 'mckennie']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['seriea', 'ft', 'juventus', 'crotone', 'ronaldo', 'mckennie']</t>
+          <t>['anak', 'beda', 'neng', 'samakan', 'anak', 'orang', 'tolok', 'ukurnya', 'anakku', 'berhenti']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['anak', 'beda', 'neng', 'sama', 'anak', 'orang', 'tolok', 'ukur', 'anak', 'henti']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15990</v>
+        <v>26857</v>
       </c>
       <c r="C46" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>dalemans ya emang ga cocok itu buat yg badannya gak keren heuheu</t>
+          <t xml:space="preserve">ya malu udh tua jd jemur sndiri cuci celana dalamnya jg sendiri ga tau kok bs selama itu ya tetapi </t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['dalemans', 'ya', 'emang', 'ga', 'cocok', 'itu', 'buat', 'yg', 'badannya', 'gak', 'keren', 'heuheu']</t>
+          <t>['ya', 'malu', 'udh', 'tua', 'jd', 'jemur', 'sndiri', 'cuci', 'celana', 'dalamnya', 'jg', 'sendiri', 'ga', 'tau', 'kok', 'bs', 'selama', 'itu', 'ya', 'tetapi']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['ya', 'malu', 'sudah', 'tua', 'jadi', 'jemur', 'sendiri', 'cuci', 'celana', 'dalamnya', 'juga', 'sendiri', 'tidak', 'tau', 'kok', 'bisa', 'selama', 'itu', 'ya', 'tetapi']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['dalemans', 'emang', 'cocok', 'badannya', 'keren', 'heuheu']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['dalemans', 'emang', 'cocok', 'badan', 'keren', 'heuheu']</t>
+          <t>['malu', 'tua', 'jemur', 'cuci', 'celana', 'dalamnya']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['malu', 'tua', 'jemur', 'cuci', 'celana', 'dalam']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15991</v>
+        <v>26858</v>
       </c>
       <c r="C47" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>dalemans hadeh kl org ina yg ngomong mah gitu ada aja dikomentarin kaos keren</t>
+          <t>aku berhenti ngompol di kasur tuh sma kelas smp kelas masih deres untung ga nurun ke anakku</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['dalemans', 'hadeh', 'kl', 'org', 'ina', 'yg', 'ngomong', 'mah', 'gitu', 'ada', 'aja', 'dikomentarin', 'kaos', 'keren']</t>
+          <t>['aku', 'berhenti', 'ngompol', 'di', 'kasur', 'tuh', 'sma', 'kelas', 'smp', 'kelas', 'masih', 'deres', 'untung', 'ga', 'nurun', 'ke', 'anakku']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['aku', 'berhenti', 'ngompol', 'di', 'kasur', 'itu', 'sama', 'kelas', 'sampai', 'kelas', 'masih', 'deres', 'untung', 'tidak', 'nurun', 'ke', 'anakku']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['dalemans', 'hadeh', 'kl', 'org', 'ina', 'ngomong', 'mah', 'gitu', 'dikomentarin', 'kaos', 'keren']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['dalemans', 'hadeh', 'kl', 'org', 'ina', 'ngomong', 'mah', 'gitu', 'dikomentarin', 'kaos', 'keren']</t>
+          <t>['berhenti', 'ngompol', 'kasur', 'kelas', 'kelas', 'deres', 'untung', 'nurun', 'anakku']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['henti', 'ngompol', 'kasur', 'kelas', 'kelas', 'deres', 'untung', 'nurun', 'anak']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15992</v>
+        <v>26859</v>
       </c>
       <c r="C48" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>rt en earns important points thanks to the brace for and the goal by</t>
+          <t>mimpi ngompol untung nggak ngompol beneran pas auto pegang celana saat kebangun biasanya kl mimpi ngompol tuh pipis beneran di kasur</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['rt', 'en', 'earns', 'important', 'points', 'thanks', 'to', 'the', 'brace', 'for', 'and', 'the', 'goal', 'by']</t>
+          <t>['mimpi', 'ngompol', 'untung', 'nggak', 'ngompol', 'beneran', 'pas', 'auto', 'pegang', 'celana', 'saat', 'kebangun', 'biasanya', 'kl', 'mimpi', 'ngompol', 'tuh', 'pipis', 'beneran', 'di', 'kasur']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['mimpi', 'ngompol', 'untung', 'enggak', 'ngompol', 'benaran', 'pas', 'auto', 'pegang', 'celana', 'saat', 'kebangun', 'biasanya', 'kalau', 'mimpi', 'ngompol', 'itu', 'pipis', 'benaran', 'di', 'kasur']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['en', 'earns', 'important', 'points', 'thanks', 'to', 'the', 'brace', 'for', 'and', 'the', 'goal', 'by']</t>
+          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['en', 'earns', 'important', 'points', 'thanks', 'to', 'the', 'brace', 'for', 'and', 'the', 'goal', 'by']</t>
+          <t>['mimpi', 'ngompol', 'untung', 'ngompol', 'benaran', 'pas', 'auto', 'pegang', 'celana', 'kebangun', 'mimpi', 'ngompol', 'pipis', 'benaran', 'kasur']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['mimpi', 'ngompol', 'untung', 'ngompol', 'benar', 'pas', 'auto', 'pegang', 'celana', 'bangun', 'mimpi', 'ngompol', 'pipis', 'benar', 'kasur']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15993</v>
+        <v>26860</v>
       </c>
       <c r="C49" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>rt crisitanos brace leads juventus to the points against crotone back to winning ways</t>
+          <t>pengumuman pemenang quiz youtube ini nanti malam waktu italia besok pagi waktu indonesia bag barat ya</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['rt', 'crisitanos', 'brace', 'leads', 'juventus', 'to', 'the', 'points', 'against', 'crotone', 'back', 'to', 'winning', 'ways']</t>
+          <t>['pengumuman', 'pemenang', 'quiz', 'youtube', 'ini', 'nanti', 'malam', 'waktu', 'italia', 'besok', 'pagi', 'waktu', 'indonesia', 'bag', 'barat', 'ya']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['pengumuman', 'pemenang', 'kuiz', 'youtube', 'ini', 'nanti', 'malam', 'waktu', 'italia', 'besok', 'pagi', 'waktu', 'indonesia', 'bag', 'barat', 'ya']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['crisitanos', 'brace', 'leads', 'juventus', 'to', 'the', 'points', 'against', 'crotone', 'back', 'to', 'winning', 'ways']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['crisitanos', 'brace', 'leads', 'juventus', 'to', 'the', 'points', 'against', 'crotone', 'back', 'to', 'winning', 'ways']</t>
+          <t>['pengumuman', 'pemenang', 'kuiz', 'youtube', 'malam', 'italia', 'besok', 'pagi', 'indonesia', 'bag', 'barat']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['umum', 'menang', 'kuiz', 'youtube', 'malam', 'italia', 'besok', 'pagi', 'indonesia', 'bag', 'barat']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15994</v>
+        <v>26861</v>
       </c>
       <c r="C50" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>rt triplice fischio  una vittoria nella partita numero allallianz stadium</t>
+          <t>rt aereta buonwiken  tutti tuipverse happy weekend everyone feeling fantastic ada yg tanya kok ga pilih lari kujawab bi</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['rt', 'triplice', 'fischio', 'una', 'vittoria', 'nella', 'partita', 'numero', 'allallianz', 'stadium']</t>
+          <t>['rt', 'aereta', 'buonwiken', 'tutti', 'tuipverse', 'happy', 'weekend', 'everyone', 'feeling', 'fantastic', 'ada', 'yg', 'tanya', 'kok', 'ga', 'pilih', 'lari', 'kujawab', 'bi']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'aereta', 'buonwiken', 'tutti', 'tuipverse', 'happy', 'akhir, pekan', 'everyone', 'feeling', 'fantastis', 'ada', 'yang', 'tanya', 'kok', 'tidak', 'pilih', 'lari', 'kujawab', 'bi']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['triplice', 'fischio', 'una', 'vittoria', 'nella', 'partita', 'numero', 'allallianz', 'stadium']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['triplice', 'fischio', 'una', 'vittoria', 'nella', 'partita', 'numero', 'allallianz', 'stadium']</t>
+          <t>['aereta', 'buonwiken', 'tutti', 'tuipverse', 'happy', 'akhir, pekan', 'everyone', 'feeling', 'fantastis', 'pilih', 'lari', 'kujawab', 'bi']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['aereta', 'buonwiken', 'tutti', 'tuipverse', 'happy', 'akhir pekan', 'everyone', 'feeling', 'fantastis', 'pilih', 'lari', 'jawab', 'bi']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15995</v>
+        <v>26862</v>
       </c>
       <c r="C51" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>rt harder better faster stronger</t>
+          <t>rt aereta hari ini suhu balik drop lg ditambah anginnya dingin banget kl males gerak mah buonanotte selesai consistent is an exp</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['rt', 'harder', 'better', 'faster', 'stronger']</t>
+          <t>['rt', 'aereta', 'hari', 'ini', 'suhu', 'balik', 'drop', 'lg', 'ditambah', 'anginnya', 'dingin', 'banget', 'kl', 'males', 'gerak', 'mah', 'buonanotte', 'selesai', 'consistent', 'is', 'an', 'exp']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'aereta', 'hari', 'ini', 'suhu', 'balik', 'drop', 'lagi', 'ditambah', 'anginnya', 'dingin', 'banget', 'kalau', 'malas', 'gerak', 'adalah', 'buonanotte', 'selesai', 'consistent', 'is', 'an', 'exp']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['harder', 'better', 'faster', 'stronger']</t>
+          <t>&lt;FreqDist with 22 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['harder', 'better', 'faster', 'stronger']</t>
+          <t>['aereta', 'suhu', 'drop', 'ditambah', 'anginnya', 'dingin', 'banget', 'malas', 'gerak', 'buonanotte', 'selesai', 'consistent', 'is', 'an', 'exp']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['aereta', 'suhu', 'drop', 'tambah', 'angin', 'dingin', 'banget', 'malas', 'gerak', 'buonanotte', 'selesai', 'consistent', 'is', 'an', 'exp']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15996</v>
+        <v>26863</v>
       </c>
       <c r="C52" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>rt ht termina la prima frazione allallianz stadium per il momento decide la doppietta di testa di concent</t>
+          <t xml:space="preserve">rt aereta id nggih romo apa lg untuk kita yg tinggal di ln apa namanya kl bukan peduli dan cinta kpd </t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['rt', 'ht', 'termina', 'la', 'prima', 'frazione', 'allallianz', 'stadium', 'per', 'il', 'momento', 'decide', 'la', 'doppietta', 'di', 'testa', 'di', 'concent']</t>
+          <t>['rt', 'aereta', 'id', 'nggih', 'romo', 'apa', 'lg', 'untuk', 'kita', 'yg', 'tinggal', 'di', 'ln', 'apa', 'namanya', 'kl', 'bukan', 'peduli', 'dan', 'cinta', 'kpd']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'aereta', 'id', 'iya', 'romo', 'apa', 'lagi', 'untuk', 'kita', 'yang', 'tinggal', 'di', 'ln', 'apa', 'namanya', 'kalau', 'bukan', 'peduli', 'dan', 'cinta', 'kepada']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['ht', 'termina', 'la', 'prima', 'frazione', 'allallianz', 'stadium', 'il', 'momento', 'decide', 'la', 'doppietta', 'testa', 'concent']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['ht', 'mina', 'la', 'prima', 'frazione', 'allallianz', 'stadium', 'il', 'momento', 'decide', 'la', 'doppietta', 'testa', 'concent']</t>
+          <t>['aereta', 'id', 'iya', 'romo', 'tinggal', 'ln', 'namanya', 'peduli', 'cinta']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['aereta', 'id', 'iya', 'romo', 'tinggal', 'ln', 'nama', 'peduli', 'cinta']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15997</v>
+        <v>26864</v>
       </c>
       <c r="C53" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt gl ht juventus crotone dua goal diciptakan oleh ronaldo lewat sundulan dua duanya umpan dari pemain juventus yang bermain </t>
+          <t>id nggih romo apa lg untuk kita yg tinggal di ln apa namanya kl bukan peduli dan cinta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt', 'gl', 'ht', 'juventus', 'crotone', 'dua', 'goal', 'diciptakan', 'oleh', 'ronaldo', 'lewat', 'sundulan', 'dua', 'duanya', 'umpan', 'dari', 'pemain', 'juventus', 'yang', 'bermain']</t>
+          <t>['id', 'nggih', 'romo', 'apa', 'lg', 'untuk', 'kita', 'yg', 'tinggal', 'di', 'ln', 'apa', 'namanya', 'kl', 'bukan', 'peduli', 'dan', 'cinta']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['id', 'iya', 'romo', 'apa', 'lagi', 'untuk', 'kita', 'yang', 'tinggal', 'di', 'ln', 'apa', 'namanya', 'kalau', 'bukan', 'peduli', 'dan', 'cinta']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['gl', 'ht', 'juventus', 'crotone', 'goal', 'diciptakan', 'ronaldo', 'sundulan', 'duanya', 'umpan', 'pemain', 'juventus', 'bermain']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['gl', 'ht', 'juventus', 'crotone', 'goal', 'cipta', 'ronaldo', 'sundul', 'dua', 'umpan', 'main', 'juventus', 'main']</t>
+          <t>['id', 'iya', 'romo', 'tinggal', 'ln', 'namanya', 'peduli', 'cinta']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['id', 'iya', 'romo', 'tinggal', 'ln', 'nama', 'peduli', 'cinta']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15998</v>
+        <v>26865</v>
       </c>
       <c r="C54" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>gl hahahahah gak perlu pake ijin aku cm nanya tok soale kaya tangan yg blm kena gosok sabun seminggu aku</t>
+          <t>rt id aereta selamat malam italia senang jumpa lagi ayo jangan lupa istirahat ya cium sayang untuk cucu</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['gl', 'hahahahah', 'gak', 'perlu', 'pake', 'ijin', 'aku', 'cm', 'nanya', 'tok', 'soale', 'kaya', 'tangan', 'yg', 'blm', 'kena', 'gosok', 'sabun', 'seminggu', 'aku']</t>
+          <t>['rt', 'id', 'aereta', 'selamat', 'malam', 'italia', 'senang', 'jumpa', 'lagi', 'ayo', 'jangan', 'lupa', 'istirahat', 'ya', 'cium', 'sayang', 'untuk', 'cucu']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'id', 'aereta', 'selamat', 'malam', 'italia', 'senang', 'jumpa', 'lagi', 'ayo', 'jangan', 'lupa', 'istirahat', 'ya', 'cium', 'sayang', 'untuk', 'cucu']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['gl', 'hahahahah', 'pake', 'ijin', 'cm', 'nanya', 'tok', 'soale', 'kaya', 'tangan', 'blm', 'kena', 'gosok', 'sabun', 'seminggu']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['gl', 'hahahahah', 'pake', 'ijin', 'cm', 'nanya', 'tok', 'soale', 'kaya', 'tangan', 'blm', 'kena', 'gosok', 'sabun', 'minggu']</t>
+          <t>['id', 'aereta', 'selamat', 'malam', 'italia', 'senang', 'jumpa', 'ayo', 'lupa', 'istirahat', 'cium', 'sayang', 'cucu']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['id', 'aereta', 'selamat', 'malam', 'italia', 'senang', 'jumpa', 'ayo', 'lupa', 'istirahat', 'cium', 'sayang', 'cucu']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15999</v>
+        <v>26866</v>
       </c>
       <c r="C55" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>rt cristiano brace in the first half</t>
+          <t>id aku wes ora urus romo emoh wes gumoh selamat pagi romo boedi sehat selalu</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'cristiano', 'brace', 'in', 'the', 'first', 'half']</t>
+          <t>['id', 'aku', 'wes', 'ora', 'urus', 'romo', 'emoh', 'wes', 'gumoh', 'selamat', 'pagi', 'romo', 'boedi', 'sehat', 'selalu']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['id', 'aku', 'sudah', 'tidak', 'urus', 'romo', 'emoh', 'sudah', 'gumoh', 'selamat', 'pagi', 'romo', 'boedi', 'sehat', 'selalu']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['cristiano', 'brace', 'in', 'the', 'first', 'half']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['cristiano', 'brace', 'in', 'the', 'first', 'half']</t>
+          <t>['id', 'urus', 'romo', 'emoh', 'gumoh', 'selamat', 'pagi', 'romo', 'boedi', 'sehat']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['id', 'urus', 'romo', 'emoh', 'gumoh', 'selamat', 'pagi', 'romo', 'boedi', 'sehat']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16000</v>
+        <v>26867</v>
       </c>
       <c r="C56" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>rt doppio cr doppio siuuuu ci prova prima con un destro potente ben respinto da cordaz ma sugli svi</t>
+          <t>cocok sih mas lui abita  torino tempatnya udh cocok di turin heuheu</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['rt', 'doppio', 'cr', 'doppio', 'siuuuu', 'ci', 'prova', 'prima', 'con', 'un', 'destro', 'potente', 'ben', 'respinto', 'da', 'cordaz', 'ma', 'sugli', 'svi']</t>
+          <t>['cocok', 'sih', 'mas', 'lui', 'abita', 'torino', 'tempatnya', 'udh', 'cocok', 'di', 'turin', 'heuheu']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['cocok', 'sih', 'mas', 'lui', 'abita', 'torino', 'tempatnya', 'sudah', 'cocok', 'di', 'turin', 'heuheu']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['doppio', 'cr', 'doppio', 'siuuuu', 'ci', 'prova', 'prima', 'con', 'un', 'destro', 'potente', 'ben', 'respinto', 'da', 'cordaz', 'ma', 'sugli', 'svi']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['doppio', 'cr', 'doppio', 'siuuuu', 'ci', 'prova', 'prima', 'con', 'un', 'destro', 'potente', 'ben', 'respinto', 'da', 'cordaz', 'ma', 'sugli', 'svi']</t>
+          <t>['cocok', 'mas', 'lui', 'abita', 'torino', 'tempatnya', 'cocok', 'turin', 'heuheu']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['cocok', 'mas', 'lui', 'abita', 'torino', 'tempat', 'cocok', 'turin', 'heuheu']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16001</v>
+        <v>26868</v>
       </c>
       <c r="C57" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>gl itu tangannya siapa sih yg dicomot</t>
+          <t>rt mbaaaaak jadi nyalon di pilkada turin gak mbaaak</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['gl', 'itu', 'tangannya', 'siapa', 'sih', 'yg', 'dicomot']</t>
+          <t>['rt', 'mbaaaaak', 'jadi', 'nyalon', 'di', 'pilkada', 'turin', 'gak', 'mbaaak']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'mbaaaaak', 'jadi', 'nyalon', 'di', 'pilihan, kepala, daerah', 'turin', 'tidak', 'mbaaak']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['gl', 'tangannya', 'dicomot']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['gl', 'tangan', 'comot']</t>
+          <t>['mbaaaaak', 'nyalon', 'pilihan, kepala, daerah', 'turin', 'mbaaak']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['mbaaaaak', 'nyalon', 'pilih kepala daerah', 'turin', 'mbaaak']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16002</v>
+        <v>26869</v>
       </c>
       <c r="C58" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>jadwal bersihin gigi tiap bln jd ingat kasus temanku di bri kantor cabang di jatibarang yg mas satpamnya dicaci</t>
+          <t>buonwiken  tutti tuipverse happy weekend everyone feeling fantastic ada yg tanya kok ga pilih lari kujaw</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['jadwal', 'bersihin', 'gigi', 'tiap', 'bln', 'jd', 'ingat', 'kasus', 'temanku', 'di', 'bri', 'kantor', 'cabang', 'di', 'jatibarang', 'yg', 'mas', 'satpamnya', 'dicaci']</t>
+          <t>['buonwiken', 'tutti', 'tuipverse', 'happy', 'weekend', 'everyone', 'feeling', 'fantastic', 'ada', 'yg', 'tanya', 'kok', 'ga', 'pilih', 'lari', 'kujaw']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['buonwiken', 'tutti', 'tuipverse', 'happy', 'akhir, pekan', 'everyone', 'feeling', 'fantastis', 'ada', 'yang', 'tanya', 'kok', 'tidak', 'pilih', 'lari', 'kujaw']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['jadwal', 'bersihin', 'gigi', 'bln', 'temanku', 'bri', 'kantor', 'cabang', 'jatibarang', 'mas', 'satpamnya', 'dicaci']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['jadwal', 'bersihin', 'gigi', 'bln', 'teman', 'bri', 'kantor', 'cabang', 'jatibarang', 'mas', 'satpam', 'caci']</t>
+          <t>['buonwiken', 'tutti', 'tuipverse', 'happy', 'akhir, pekan', 'everyone', 'feeling', 'fantastis', 'pilih', 'lari', 'kujaw']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['buonwiken', 'tutti', 'tuipverse', 'happy', 'akhir pekan', 'everyone', 'feeling', 'fantastis', 'pilih', 'lari', 'kujaw']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16003</v>
+        <v>26870</v>
       </c>
       <c r="C59" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>rt sebenarnya aku gak nanya tapi krn jauh ngetwit dari italiokelah aku respon heuheuheu</t>
+          <t>hari ini suhu balik drop lg ditambah anginnya dingin banget kl males gerak mah buonanotte selesai consistent is</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['rt', 'sebenarnya', 'aku', 'gak', 'nanya', 'tapi', 'krn', 'jauh', 'ngetwit', 'dari', 'italiokelah', 'aku', 'respon', 'heuheuheu']</t>
+          <t>['hari', 'ini', 'suhu', 'balik', 'drop', 'lg', 'ditambah', 'anginnya', 'dingin', 'banget', 'kl', 'males', 'gerak', 'mah', 'buonanotte', 'selesai', 'consistent', 'is']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['hari', 'ini', 'suhu', 'balik', 'drop', 'lagi', 'ditambah', 'anginnya', 'dingin', 'banget', 'kalau', 'malas', 'gerak', 'adalah', 'buonanotte', 'selesai', 'consistent', 'is']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['nanya', 'ngetwit', 'italiokelah', 'respon', 'heuheuheu']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['nanya', 'ngetwit', 'italiokelah', 'respon', 'heuheuheu']</t>
+          <t>['suhu', 'drop', 'ditambah', 'anginnya', 'dingin', 'banget', 'malas', 'gerak', 'buonanotte', 'selesai', 'consistent', 'is']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['suhu', 'drop', 'tambah', 'angin', 'dingin', 'banget', 'malas', 'gerak', 'buonanotte', 'selesai', 'consistent', 'is']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16004</v>
+        <v>26871</v>
       </c>
       <c r="C60" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>grazie</t>
+          <t xml:space="preserve">rt resmi masuk prolegnas tanpa uu persoalan miras takkan pernah terurai banyak negara di dunia bahkan yang paling sekuler </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['grazie']</t>
+          <t>['rt', 'resmi', 'masuk', 'prolegnas', 'tanpa', 'uu', 'persoalan', 'miras', 'takkan', 'pernah', 'terurai', 'banyak', 'negara', 'di', 'dunia', 'bahkan', 'yang', 'paling', 'sekuler']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'resmi', 'masuk', 'prolegnas', 'tanpa', 'undang, undang', 'persoalan', 'minuman, keras', 'tak, akan', 'pernah', 'terurai', 'banyak', 'negara', 'di', 'dunia', 'bahkan', 'yang', 'paling', 'sekuler']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['grazie']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['grazie']</t>
+          <t>['resmi', 'masuk', 'prolegnas', 'undang, undang', 'minuman, keras', 'tak, akan', 'terurai', 'negara', 'dunia', 'sekuler']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['resmi', 'masuk', 'prolegnas', 'undang undang', 'minum keras', 'tak akan', 'urai', 'negara', 'dunia', 'sekuler']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>16005</v>
+        <v>26872</v>
       </c>
       <c r="C61" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>cirebonan dan indramayuan juga sama mas udane beli marimari senget mau esuk atau udane ora marimari senget</t>
+          <t>jg agar doanya joss diijabah masukan teman atau org yg kita kenal baik secara personal atau hanya secara nama yg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['cirebonan', 'dan', 'indramayuan', 'juga', 'sama', 'mas', 'udane', 'beli', 'marimari', 'senget', 'mau', 'esuk', 'atau', 'udane', 'ora', 'marimari', 'senget']</t>
+          <t>['jg', 'agar', 'doanya', 'joss', 'diijabah', 'masukan', 'teman', 'atau', 'org', 'yg', 'kita', 'kenal', 'baik', 'secara', 'personal', 'atau', 'hanya', 'secara', 'nama', 'yg']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['juga', 'agar', 'doanya', 'joss', 'diijabah', 'masukan', 'teman', 'atau', 'orang', 'yang', 'kita', 'kenal', 'baik', 'secara', 'personal', 'atau', 'hanya', 'secara', 'nama', 'yang']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['cirebonan', 'indramayuan', 'mas', 'udane', 'beli', 'marimari', 'senget', 'esuk', 'udane', 'ora', 'marimari', 'senget']</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['cirebonan', 'indramayuan', 'mas', 'udane', 'beli', 'marimari', 'senget', 'esuk', 'udane', 'ora', 'marimari', 'senget']</t>
+          <t>['doanya', 'joss', 'diijabah', 'masukan', 'teman', 'orang', 'kenal', 'personal', 'nama']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['doa', 'joss', 'diijabah', 'masuk', 'teman', 'orang', 'kenal', 'personal', 'nama']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16006</v>
+        <v>26873</v>
       </c>
       <c r="C62" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>pada ijo banget pengen jadi presiden najong dah ah</t>
+          <t>tetapi jangan salah kegelisahan yg kerap datang mendadak tanpa kita tahu sebabnya pun serupa sakit yang menghapus</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['pada', 'ijo', 'banget', 'pengen', 'jadi', 'presiden', 'najong', 'dah', 'ah']</t>
+          <t>['tetapi', 'jangan', 'salah', 'kegelisahan', 'yg', 'kerap', 'datang', 'mendadak', 'tanpa', 'kita', 'tahu', 'sebabnya', 'pun', 'serupa', 'sakit', 'yang', 'menghapus']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['tetapi', 'jangan', 'salah', 'kegelisahan', 'yang', 'kerap', 'datang', 'mendadak', 'tanpa', 'kita', 'tahu', 'sebabnya', 'pun', 'serupa', 'sakit', 'yang', 'menghapus']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['ijo', 'banget', 'pengen', 'presiden', 'najong', 'dah', 'ah']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['ijo', 'banget', 'ken', 'presiden', 'najong', 'dah', 'ah']</t>
+          <t>['salah', 'kegelisahan', 'kerap', 'mendadak', 'sakit', 'menghapus']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['salah', 'gelisah', 'kerap', 'dadak', 'sakit', 'hapus']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>16007</v>
+        <v>26874</v>
       </c>
       <c r="C63" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>thx neng ro box usuami minuman andalan suami perkasa bukan cm saluran nafas yg di</t>
+          <t xml:space="preserve"> am jangan sampe sama manusia mohon marwah dan brand diri harus dijaga baikbaik kalau pun terjebak bucin misa</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['thx', 'neng', 'ro', 'box', 'usuami', 'minuman', 'andalan', 'suami', 'perkasa', 'bukan', 'cm', 'saluran', 'nafas', 'yg', 'di']</t>
+          <t>['am', 'jangan', 'sampe', 'sama', 'manusia', 'mohon', 'marwah', 'dan', 'brand', 'diri', 'harus', 'dijaga', 'baikbaik', 'kalau', 'pun', 'terjebak', 'bucin', 'misa']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['am', 'jangan', 'sampai', 'sama', 'manusia', 'mohon', 'marwah', 'dan', 'merek', 'diri', 'harus', 'dijaga', 'baikbaik', 'kalau', 'pun', 'terjebak', 'budak, cinta', 'misa']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['thx', 'neng', 'ro', 'box', 'usuami', 'minuman', 'andalan', 'suami', 'perkasa', 'cm', 'saluran', 'nafas']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['thx', 'neng', 'ro', 'box', 'usuami', 'minum', 'andal', 'suami', 'perkasa', 'cm', 'salur', 'nafas']</t>
+          <t>['am', 'manusia', 'mohon', 'marwah', 'merek', 'dijaga', 'baikbaik', 'terjebak', 'budak, cinta', 'misa']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['am', 'manusia', 'mohon', 'marwah', 'merek', 'jaga', 'baikbaik', 'jebak', 'budak cinta', 'misa']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>16008</v>
+        <v>26875</v>
       </c>
       <c r="C64" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>dimasa covid selain imunitas penyakit bawaan spt diabet jantung amp paruparu hrs dpt perhatian lbh dg</t>
+          <t>duuuh ngeliatnya gate sembari gigiku beradu gemeretek pengen ku gusruk</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['dimasa', 'covid', 'selain', 'imunitas', 'penyakit', 'bawaan', 'spt', 'diabet', 'jantung', 'amp', 'paruparu', 'hrs', 'dpt', 'perhatian', 'lbh', 'dg']</t>
+          <t>['duuuh', 'ngeliatnya', 'gate', 'sembari', 'gigiku', 'beradu', 'gemeretek', 'pengen', 'ku', 'gusruk']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['duuuh', 'melihatnya', 'gate', 'sembari', 'gigiku', 'beradu', 'gemeretek', 'ingin', 'ku', 'gusruk']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['dimasa', 'covid', 'imunitas', 'penyakit', 'bawaan', 'spt', 'diabet', 'jantung', 'paruparu', 'hrs', 'dpt', 'perhatian', 'lbh']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['masa', 'covid', 'imunitas', 'sakit', 'bawa', 'spt', 'abet', 'jantung', 'paruparu', 'hrs', 'dpt', 'perhati', 'lbh']</t>
+          <t>['duuuh', 'gate', 'sembari', 'gigiku', 'beradu', 'gemeretek', 'ku', 'gusruk']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['duuuh', 'gate', 'sembari', 'gigi', 'adu', 'getek', 'ku', 'gusruk']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16009</v>
+        <v>26876</v>
       </c>
       <c r="C65" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>rt aereta saya yg di italy amp alami masa pandemi tersulit pastilah ikhtiar proteksi mencegah covid tak</t>
+          <t>bersaksi palsu dgn sumpah atas nama allah bersumpah atas nama allah umengakui barang yg bukan miliknya bersumpah</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['rt', 'aereta', 'saya', 'yg', 'di', 'italy', 'amp', 'alami', 'masa', 'pandemi', 'tersulit', 'pastilah', 'ikhtiar', 'proteksi', 'mencegah', 'covid', 'tak']</t>
+          <t>['bersaksi', 'palsu', 'dgn', 'sumpah', 'atas', 'nama', 'allah', 'bersumpah', 'atas', 'nama', 'allah', 'umengakui', 'barang', 'yg', 'bukan', 'miliknya', 'bersumpah']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['bersaksi', 'palsu', 'dengan', 'sumpah', 'atas', 'nama', 'allah', 'bersumpah', 'atas', 'nama', 'allah', 'umengakui', 'barang', 'yang', 'bukan', 'miliknya', 'bersumpah']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['aereta', 'italy', 'alami', 'pandemi', 'tersulit', 'ikhtiar', 'proteksi', 'mencegah', 'covid']</t>
+          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['aereta', 'italy', 'alami', 'pandemi', 'sulit', 'ikhtiar', 'proteksi', 'cegah', 'covid']</t>
+          <t>['bersaksi', 'palsu', 'sumpah', 'nama', 'allah', 'bersumpah', 'nama', 'allah', 'umengakui', 'barang', 'miliknya', 'bersumpah']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['saksi', 'palsu', 'sumpah', 'nama', 'allah', 'sumpah', 'nama', 'allah', 'umengakui', 'barang', 'milik', 'sumpah']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16010</v>
+        <v>26877</v>
       </c>
       <c r="C66" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>sampe tua jerawat amp komedo msh numpuk mulai muncul flek mulai byk kerutan muka dtg sebelum waktunya</t>
+          <t>aku mau jalan kaki sbntr lg salat ashar dl kita brief sambil aku jalan kaki okay</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['sampe', 'tua', 'jerawat', 'amp', 'komedo', 'msh', 'numpuk', 'mulai', 'muncul', 'flek', 'mulai', 'byk', 'kerutan', 'muka', 'dtg', 'sebelum', 'waktunya']</t>
+          <t>['aku', 'mau', 'jalan', 'kaki', 'sbntr', 'lg', 'salat', 'ashar', 'dl', 'kita', 'brief', 'sambil', 'aku', 'jalan', 'kaki', 'okay']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['aku', 'mau', 'jalan', 'kaki', 'sebentar', 'lagi', 'salat', 'asar', 'dulu', 'kita', 'brief', 'sambil', 'aku', 'jalan', 'kaki', 'ok']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['sampe', 'tua', 'jerawat', 'komedo', 'msh', 'numpuk', 'muncul', 'flek', 'byk', 'kerutan', 'muka', 'dtg']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['sampe', 'tua', 'jerawat', 'komedo', 'msh', 'numpuk', 'muncul', 'flek', 'byk', 'kerut', 'muka', 'dtg']</t>
+          <t>['jalan', 'kaki', 'sebentar', 'salat', 'asar', 'brief', 'jalan', 'kaki', 'ok']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['jalan', 'kaki', 'sebentar', 'salat', 'asar', 'brief', 'jalan', 'kaki', 'ok']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16011</v>
+        <v>26878</v>
       </c>
       <c r="C67" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>covid nyata thx neng repeat order bioce cegah gejala klinis covid demam radang ten</t>
+          <t>apakah manusia itu mengira bahwa mereka dibiarkan saja mengatakan kami telah beriman sedang mereka tidak diuj</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['covid', 'nyata', 'thx', 'neng', 'repeat', 'order', 'bioce', 'cegah', 'gejala', 'klinis', 'covid', 'demam', 'radang', 'ten']</t>
+          <t>['apakah', 'manusia', 'itu', 'mengira', 'bahwa', 'mereka', 'dibiarkan', 'saja', 'mengatakan', 'kami', 'telah', 'beriman', 'sedang', 'mereka', 'tidak', 'diuj']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['apakah', 'manusia', 'itu', 'mengira', 'bahwa', 'mereka', 'dibiarkan', 'saja', 'mengatakan', 'kami', 'telah', 'beriman', 'sedang', 'mereka', 'tidak', 'diuj']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['covid', 'nyata', 'thx', 'neng', 'repeat', 'order', 'bioce', 'cegah', 'gejala', 'klinis', 'covid', 'demam', 'radang', 'ten']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['covid', 'nyata', 'thx', 'neng', 'repeat', 'order', 'bioce', 'cegah', 'gejala', 'klinis', 'covid', 'demam', 'radang', 'ten']</t>
+          <t>['manusia', 'dibiarkan', 'beriman', 'diuj']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['manusia', 'biar', 'iman', 'diuj']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16012</v>
+        <v>26879</v>
       </c>
       <c r="C68" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>aku bukan tim sukses amp die hardnya anies baswedan cm mau blg untung jaman pilpres gak latah ngefans amp expect tin</t>
+          <t>yang ganteng mana yak</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['aku', 'bukan', 'tim', 'sukses', 'amp', 'die', 'hardnya', 'anies', 'baswedan', 'cm', 'mau', 'blg', 'untung', 'jaman', 'pilpres', 'gak', 'latah', 'ngefans', 'amp', 'expect', 'tin']</t>
+          <t>['yang', 'ganteng', 'mana', 'yak']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['yang', 'ganteng', 'mana', 'ya']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['tim', 'sukses', 'die', 'hardnya', 'anies', 'baswedan', 'cm', 'blg', 'untung', 'jaman', 'pilpres', 'latah', 'ngefans', 'expect', 'tin']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['tim', 'sukses', 'die', 'hardnya', 'anies', 'baswedan', 'cm', 'blg', 'untung', 'jaman', 'pilpres', 'latah', 'ngefans', 'expect', 'tin']</t>
+          <t>['ganteng']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['ganteng']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16013</v>
+        <v>26880</v>
       </c>
       <c r="C69" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>dari jaman pilpres saya sih sama semua survei yg bilang elektabilitas ps unggul aja ngga percaya apa lagi sama</t>
+          <t>rt malam minggu adalah saat ketika kekasihmu pulang ke rumah tangganya masing beruntung aku bukan pejabattokoh pol</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['dari', 'jaman', 'pilpres', 'saya', 'sih', 'sama', 'semua', 'survei', 'yg', 'bilang', 'elektabilitas', 'ps', 'unggul', 'aja', 'ngga', 'percaya', 'apa', 'lagi', 'sama']</t>
+          <t>['rt', 'malam', 'minggu', 'adalah', 'saat', 'ketika', 'kekasihmu', 'pulang', 'ke', 'rumah', 'tangganya', 'masing', 'beruntung', 'aku', 'bukan', 'pejabattokoh', 'pol']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'malam', 'minggu', 'adalah', 'saat', 'ketika', 'kekasihmu', 'pulang', 'ke', 'rumah', 'tangganya', 'masing', 'beruntung', 'aku', 'bukan', 'pejabattokoh', 'pol']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['jaman', 'pilpres', 'survei', 'elektabilitas', 'ps', 'unggul', 'ngga', 'percaya']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['jaman', 'pilpres', 'survei', 'elektabilitas', 'ps', 'unggul', 'ngga', 'percaya']</t>
+          <t>['malam', 'minggu', 'kekasihmu', 'pulang', 'rumah', 'tangganya', 'beruntung', 'pejabattokoh', 'pol']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['malam', 'minggu', 'kasih', 'pulang', 'rumah', 'tangga', 'untung', 'pejabattokoh', 'pol']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16014</v>
+        <v>26881</v>
       </c>
       <c r="C70" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ya udah ga usah komen</t>
+          <t>rt rakyat bisa marah nggak juga rakyat ud gak peduli</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['ya', 'udah', 'ga', 'usah', 'komen']</t>
+          <t>['rt', 'rakyat', 'bisa', 'marah', 'nggak', 'juga', 'rakyat', 'ud', 'gak', 'peduli']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'rakyat', 'bisa', 'marah', 'enggak', 'juga', 'rakyat', 'sudah', 'tidak', 'peduli']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['udah', 'komen']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['udah', 'komen']</t>
+          <t>['rakyat', 'marah', 'rakyat', 'peduli']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['rakyat', 'marah', 'rakyat', 'peduli']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16015</v>
+        <v>26882</v>
       </c>
       <c r="C71" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>banget neng itu juga semoga tahun ini bs tiket mah udh di tangan</t>
+          <t>rt apa siaran tv ttg demokrat kpk pilkada konflik di laut china selatan dll dll bermanfaat</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['banget', 'neng', 'itu', 'juga', 'semoga', 'tahun', 'ini', 'bs', 'tiket', 'mah', 'udh', 'di', 'tangan']</t>
+          <t>['rt', 'apa', 'siaran', 'tv', 'ttg', 'demokrat', 'kpk', 'pilkada', 'konflik', 'di', 'laut', 'china', 'selatan', 'dll', 'dll', 'bermanfaat']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'apa', 'siaran', 'televisi', 'tentang', 'demokrat', 'komisi, pemberantasan, korupsi', 'pilihan, kepala, daerah', 'konflik', 'di', 'laut', 'cina', 'selatan', 'dan, lain, lain', 'dan, lain, lain', 'bermanfaat']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['banget', 'neng', 'semoga', 'bs', 'tiket', 'mah', 'udh', 'tangan']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['banget', 'neng', 'moga', 'bs', 'tiket', 'mah', 'udh', 'tangan']</t>
+          <t>['siaran', 'televisi', 'demokrat', 'komisi, pemberantasan, korupsi', 'pilihan, kepala, daerah', 'konflik', 'laut', 'cina', 'selatan', 'dan, lain, lain', 'dan, lain, lain', 'bermanfaat']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['siar', 'televisi', 'demokrat', 'komisi berantas korupsi', 'pilih kepala daerah', 'konflik', 'laut', 'cina', 'selatan', 'dan lain lain', 'dan lain lain', 'manfaat']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16016</v>
+        <v>26883</v>
       </c>
       <c r="C72" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>twitter titip kangen</t>
+          <t>melihat di tl saja aku sudah gumoh mlukek eneg mas buat aku pribadi blass gak ada manfaatnya apa lagi misal dita</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['twitter', 'titip', 'kangen']</t>
+          <t>['melihat', 'di', 'tl', 'saja', 'aku', 'sudah', 'gumoh', 'mlukek', 'eneg', 'mas', 'buat', 'aku', 'pribadi', 'blass', 'gak', 'ada', 'manfaatnya', 'apa', 'lagi', 'misal', 'dita']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['melihat', 'di', 'lini, masa', 'saja', 'aku', 'sudah', 'gumoh', 'mlukek', 'eneg', 'mas', 'buat', 'aku', 'pribadi', 'sama, sekali', 'tidak', 'ada', 'manfaatnya', 'apa', 'lagi', 'misal', 'dita']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['twitter', 'titip', 'kangen']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['twitter', 'titip', 'kangen']</t>
+          <t>['lini, masa', 'gumoh', 'mlukek', 'eneg', 'mas', 'pribadi', 'sama, sekali', 'manfaatnya', 'dita']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['lini masa', 'gumoh', 'mlukek', 'eneg', 'mas', 'pribadi', 'sama sekali', 'manfaat', 'dita']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16017</v>
+        <v>26884</v>
       </c>
       <c r="C73" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rt aereta nggak perlu melakukan olahraga berat bahkan rutin olahraga ringan seperti jalan kaki cepat pun sudah sangat amaze manfaa</t>
+          <t>kagak dah gumoh</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rt', 'aereta', 'nggak', 'perlu', 'melakukan', 'olahraga', 'berat', 'bahkan', 'rutin', 'olahraga', 'ringan', 'seperti', 'jalan', 'kaki', 'cepat', 'pun', 'sudah', 'sangat', 'amaze', 'manfaa']</t>
+          <t>['kagak', 'dah', 'gumoh']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['tidak', 'sudah', 'gumoh']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['aereta', 'nggak', 'olahraga', 'berat', 'rutin', 'olahraga', 'ringan', 'jalan', 'kaki', 'cepat', 'amaze', 'manfaa']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['aereta', 'nggak', 'olahraga', 'berat', 'rutin', 'olahraga', 'ringan', 'jalan', 'kaki', 'cepat', 'amaze', 'manfaa']</t>
+          <t>['gumoh']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['gumoh']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16018</v>
+        <v>26885</v>
       </c>
       <c r="C74" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt saya lebih geli lagi ada yang teriak kawal uang rakyat tapi begitu ada menteri korupsi bansos covid tiba senyap gelin</t>
+          <t>enaknya kl masak sekalian banyak tuh gini untuk hari gak masak ituuu aja yg dimakan kl siang yg makan aku doa</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt', 'saya', 'lebih', 'geli', 'lagi', 'ada', 'yang', 'teriak', 'kawal', 'uang', 'rakyat', 'tapi', 'begitu', 'ada', 'menteri', 'korupsi', 'bansos', 'covid', 'tiba', 'senyap', 'gelin']</t>
+          <t>['enaknya', 'kl', 'masak', 'sekalian', 'banyak', 'tuh', 'gini', 'untuk', 'hari', 'gak', 'masak', 'ituuu', 'aja', 'yg', 'dimakan', 'kl', 'siang', 'yg', 'makan', 'aku', 'doa']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['enaknya', 'kalau', 'masak', 'sekalian', 'banyak', 'itu', 'begini', 'untuk', 'hari', 'tidak', 'masak', 'itu', 'saja', 'yang', 'dimakan', 'kalau', 'siang', 'yang', 'makan', 'aku', 'doa']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['geli', 'teriak', 'kawal', 'uang', 'rakyat', 'menteri', 'korupsi', 'bansos', 'covid', 'senyap', 'gelin']</t>
+          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['geli', 'teriak', 'kawal', 'uang', 'rakyat', 'menteri', 'korupsi', 'bansos', 'covid', 'senyap', 'gin']</t>
+          <t>['enaknya', 'masak', 'masak', 'dimakan', 'siang', 'makan', 'doa']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['enak', 'masak', 'masak', 'makan', 'siang', 'makan', 'doa']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>16019</v>
+        <v>26886</v>
       </c>
       <c r="C75" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>garukan heuheu</t>
+          <t>udah ah replyannya jangan banyak</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['garukan', 'heuheu']</t>
+          <t>['udah', 'ah', 'replyannya', 'jangan', 'banyak']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['sudah', 'ah', 'replyannya', 'jangan', 'banyak']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['garukan', 'heuheu']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['garu', 'heuheu']</t>
+          <t>['ah', 'replyannya']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['ah', 'replyannya']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16020</v>
+        <v>26887</v>
       </c>
       <c r="C76" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>jakh boleh aja mas gak minum jg boleh asal mas wan mau kenalan sm ancaman hipertensi diabetes impoten covid stroke dan jantung</t>
+          <t>ya blm lah emangnya negeri berflower yang stadion sm nikahan aja menjamur hahahaha</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['jakh', 'boleh', 'aja', 'mas', 'gak', 'minum', 'jg', 'boleh', 'asal', 'mas', 'wan', 'mau', 'kenalan', 'sm', 'ancaman', 'hipertensi', 'diabetes', 'impoten', 'covid', 'stroke', 'dan', 'jantung']</t>
+          <t>['ya', 'blm', 'lah', 'emangnya', 'negeri', 'berflower', 'yang', 'stadion', 'sm', 'nikahan', 'aja', 'menjamur', 'hahahaha']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
+          <t>['ya', 'belum', 'lah', 'memangnya', 'negeri', 'berflower', 'yang', 'stadion', 'sama', 'nikahan', 'saja', 'menjamur', 'haha']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['jakh', 'mas', 'minum', 'jg', 'mas', 'wan', 'kenalan', 'sm', 'ancaman', 'hipertensi', 'diabetes', 'impoten', 'covid', 'stroke', 'jantung']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['jakh', 'mas', 'minum', 'jg', 'mas', 'wan', 'kenal', 'sm', 'ancam', 'hipertensi', 'diabetes', 'impoten', 'covid', 'stroke', 'jantung']</t>
+          <t>['memangnya', 'negeri', 'berflower', 'stadion', 'nikahan', 'menjamur', 'haha']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['memang', 'negeri', 'berflower', 'stadion', 'nikah', 'jamur', 'haha']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>16021</v>
+        <v>26888</v>
       </c>
       <c r="C77" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>jakh hahhaha ngakak kan ketahuan mas sebulan itu kan hari artinya pak iru pas sebulan nah</t>
+          <t>rt ramai mengutuk tontonan nikahan di segenap televisi padahal kami sendiri yg membuat televisi ramai mempertontonkannya</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['jakh', 'hahhaha', 'ngakak', 'kan', 'ketahuan', 'mas', 'sebulan', 'itu', 'kan', 'hari', 'artinya', 'pak', 'iru', 'pas', 'sebulan', 'nah']</t>
+          <t>['rt', 'ramai', 'mengutuk', 'tontonan', 'nikahan', 'di', 'segenap', 'televisi', 'padahal', 'kami', 'sendiri', 'yg', 'membuat', 'televisi', 'ramai', 'mempertontonkannya']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['rt', 'ramai', 'mengutuk', 'tontonan', 'nikahan', 'di', 'segenap', 'televisi', 'padahal', 'kami', 'sendiri', 'yang', 'membuat', 'televisi', 'ramai', 'mempertontonkannya']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>['jakh', 'hahhaha', 'ngakak', 'ketahuan', 'mas', 'sebulan', 'iru', 'pas', 'sebulan']</t>
-        </is>
-      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['jakh', 'hahhaha', 'ngakak', 'tahu', 'mas', 'bulan', 'iru', 'pas', 'bulan']</t>
+          <t>['ramai', 'mengutuk', 'tontonan', 'nikahan', 'segenap', 'televisi', 'televisi', 'ramai', 'mempertontonkannya']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['ramai', 'kutuk', 'tonton', 'nikah', 'segenap', 'televisi', 'televisi', 'ramai', 'tonton']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16022</v>
+        <v>26889</v>
       </c>
       <c r="C78" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>sudah dpt dm dari teamku blm neng dari mas atau mas dari sema</t>
+          <t>berkah allah jg untukmu neng</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['sudah', 'dpt', 'dm', 'dari', 'teamku', 'blm', 'neng', 'dari', 'mas', 'atau', 'mas', 'dari', 'sema']</t>
+          <t>['berkah', 'allah', 'jg', 'untukmu', 'neng']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 13 outcomes&gt;</t>
+          <t>['berkah', 'allah', 'juga', 'untukmu', 'neng']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['dpt', 'dm', 'teamku', 'blm', 'neng', 'mas', 'mas', 'sema']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['dpt', 'dm', 'teamku', 'blm', 'neng', 'mas', 'mas', 'sema']</t>
+          <t>['berkah', 'allah', 'untukmu', 'neng']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['berkah', 'allah', 'untuk', 'neng']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>16023</v>
+        <v>26890</v>
       </c>
       <c r="C79" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>pada ikutan quiz tapi settingan dm nya pada dikunciin pdh jelas tertera di poster bahwa peraturannya settingan dm</t>
+          <t>rt aereta barakallahu</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['pada', 'ikutan', 'quiz', 'tapi', 'settingan', 'dm', 'nya', 'pada', 'dikunciin', 'pdh', 'jelas', 'tertera', 'di', 'poster', 'bahwa', 'peraturannya', 'settingan', 'dm']</t>
+          <t>['rt', 'aereta', 'barakallahu']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'aereta', 'barakallahu']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['ikutan', 'quiz', 'settingan', 'dm', 'dikunciin', 'pdh', 'tertera', 'poster', 'peraturannya', 'settingan', 'dm']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['ikut', 'quiz', 'settingan', 'dm', 'dikunciin', 'pdh', 'tera', 'poster', 'atur', 'settingan', 'dm']</t>
+          <t>['aereta', 'barakallahu']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['aereta', 'barakallahu']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16024</v>
+        <v>26891</v>
       </c>
       <c r="C80" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>jakh bulan minggu lagi mas wan</t>
+          <t xml:space="preserve">kl lihat taso aku ga ngiler teh umkm teamku jg bikin nah empaaaaaal ya allah digadoin aja enak </t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['jakh', 'bulan', 'minggu', 'lagi', 'mas', 'wan']</t>
+          <t>['kl', 'lihat', 'taso', 'aku', 'ga', 'ngiler', 'teh', 'umkm', 'teamku', 'jg', 'bikin', 'nah', 'empaaaaaal', 'ya', 'allah', 'digadoin', 'aja', 'enak']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['kalau', 'lihat', 'taso', 'aku', 'tidak', 'mengiler', 'teh', 'usaha, mikro, kecil, dan, menengah', 'teamku', 'juga', 'bikin', 'nah', 'empaaaaaal', 'ya', 'allah', 'digadoin', 'saja', 'enak']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['jakh', 'minggu', 'mas', 'wan']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['jakh', 'minggu', 'mas', 'wan']</t>
+          <t>['lihat', 'taso', 'mengiler', 'teh', 'usaha, mikro, kecil, dan, menengah', 'teamku', 'empaaaaaal', 'allah', 'digadoin', 'enak']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['lihat', 'taso', 'iler', 'teh', 'usaha mikro kecil dan tengah', 'teamku', 'empaaaaaal', 'allah', 'digadoin', 'enak']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16025</v>
+        <v>26892</v>
       </c>
       <c r="C81" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>nggak perlu melakukan olahraga berat bahkan rutin olahraga ringan seperti jalan kaki cepat pun sudah sangat amaze</t>
+          <t>privat ya transportnya jd sm kaya biaya sunat di italia heuheu tp di sini gak bs sunati</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['nggak', 'perlu', 'melakukan', 'olahraga', 'berat', 'bahkan', 'rutin', 'olahraga', 'ringan', 'seperti', 'jalan', 'kaki', 'cepat', 'pun', 'sudah', 'sangat', 'amaze']</t>
+          <t>['privat', 'ya', 'transportnya', 'jd', 'sm', 'kaya', 'biaya', 'sunat', 'di', 'italia', 'heuheu', 'tp', 'di', 'sini', 'gak', 'bs', 'sunati']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['privat', 'ya', 'transportnya', 'jadi', 'sama', 'kayak', 'biaya', 'sunat', 'di', 'italia', 'heuheu', 'tetapi', 'di', 'sini', 'tidak', 'bisa', 'sunati']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>['nggak', 'olahraga', 'berat', 'rutin', 'olahraga', 'ringan', 'jalan', 'kaki', 'cepat', 'amaze']</t>
-        </is>
-      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['nggak', 'olahraga', 'berat', 'rutin', 'olahraga', 'ringan', 'jalan', 'kaki', 'cepat', 'amaze']</t>
+          <t>['privat', 'transportnya', 'kayak', 'biaya', 'sunat', 'italia', 'heuheu', 'sunati']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['privat', 'transportnya', 'kayak', 'biaya', 'sunat', 'italia', 'heuheu', 'sunat']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16026</v>
+        <v>26893</v>
       </c>
       <c r="C82" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>rt aereta pemandangan jalan kaki cepat sore tadi menjelang maghrib saat hampir sampai rumah</t>
+          <t>rt aereta biar sy aja mbak yg ke italia buat nyunat anaknya ntar dibawakan foto super hero juga</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['rt', 'aereta', 'pemandangan', 'jalan', 'kaki', 'cepat', 'sore', 'tadi', 'menjelang', 'maghrib', 'saat', 'hampir', 'sampai', 'rumah']</t>
+          <t>['rt', 'aereta', 'biar', 'sy', 'aja', 'mbak', 'yg', 'ke', 'italia', 'buat', 'nyunat', 'anaknya', 'ntar', 'dibawakan', 'foto', 'super', 'hero', 'juga']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'aereta', 'biar', 'saya', 'saja', 'mbak', 'yang', 'ke', 'italia', 'buat', 'nyunat', 'anaknya', 'nanti', 'dibawakan', 'foto', 'super', 'hero', 'juga']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['aereta', 'pemandangan', 'jalan', 'kaki', 'cepat', 'sore', 'menjelang', 'maghrib', 'rumah']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['aereta', 'pandang', 'jalan', 'kaki', 'cepat', 'sore', 'jelang', 'maghrib', 'rumah']</t>
+          <t>['aereta', 'mbak', 'italia', 'nyunat', 'anaknya', 'dibawakan', 'foto', 'super', 'hero']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['aereta', 'mbak', 'italia', 'nyunat', 'anak', 'bawa', 'foto', 'super', 'hero']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16027</v>
+        <v>26894</v>
       </c>
       <c r="C83" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>rt aereta bener jalan kaki olah raga paling asik meski pun langkah kakinya panjang amp cepat seru bs lihat yg hijau mata ist</t>
+          <t>ini mataku blm merem teh ngeliat yg begini jd lapar masa subuh kudu ngungkep empal sih kl de</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['rt', 'aereta', 'bener', 'jalan', 'kaki', 'olah', 'raga', 'paling', 'asik', 'meski', 'pun', 'langkah', 'kakinya', 'panjang', 'amp', 'cepat', 'seru', 'bs', 'lihat', 'yg', 'hijau', 'mata', 'ist']</t>
+          <t>['ini', 'mataku', 'blm', 'merem', 'teh', 'ngeliat', 'yg', 'begini', 'jd', 'lapar', 'masa', 'subuh', 'kudu', 'ngungkep', 'empal', 'sih', 'kl', 'de']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 23 samples and 23 outcomes&gt;</t>
+          <t>['ini', 'mataku', 'belum', 'merem', 'teh', 'melihat', 'yang', 'begini', 'jadi', 'lapar', 'masa', 'subuh', 'harus', 'ngungkep', 'empal', 'sih', 'kalau', 'deh']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['aereta', 'bener', 'jalan', 'kaki', 'olah', 'raga', 'asik', 'langkah', 'kakinya', 'cepat', 'seru', 'bs', 'lihat', 'hijau', 'mata', 'ist']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['aereta', 'bener', 'jalan', 'kaki', 'olah', 'raga', 'asik', 'langkah', 'kaki', 'cepat', 'seru', 'bs', 'lihat', 'hijau', 'mata', 'ist']</t>
+          <t>['mataku', 'merem', 'teh', 'lapar', 'subuh', 'ngungkep', 'empal', 'deh']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['mata', 'merem', 'teh', 'lapar', 'subuh', 'ngungkep', 'empal', 'deh']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16028</v>
+        <v>26895</v>
       </c>
       <c r="C84" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>rt aereta makanya krn aku sadar pola hidupku msh amburadul tidur tiap hari jam pagi kadang habis subuh krn kerjaan beda jam dg</t>
+          <t>sesi rujak lobak rebus enaaaaak ya rabb ternyata</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['rt', 'aereta', 'makanya', 'krn', 'aku', 'sadar', 'pola', 'hidupku', 'msh', 'amburadul', 'tidur', 'tiap', 'hari', 'jam', 'pagi', 'kadang', 'habis', 'subuh', 'krn', 'kerjaan', 'beda', 'jam', 'dg']</t>
+          <t>['sesi', 'rujak', 'lobak', 'rebus', 'enaaaaak', 'ya', 'rabb', 'ternyata']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 23 outcomes&gt;</t>
+          <t>['sesi', 'rujak', 'lobak', 'rebus', 'enaaaaak', 'ya', 'rabi', 'ternyata']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['aereta', 'sadar', 'pola', 'hidupku', 'msh', 'amburadul', 'tidur', 'jam', 'pagi', 'kadang', 'habis', 'subuh', 'kerjaan', 'beda', 'jam']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['aereta', 'sadar', 'pola', 'hidup', 'msh', 'amburadul', 'tidur', 'jam', 'pagi', 'kadang', 'habis', 'subuh', 'kerja', 'beda', 'jam']</t>
+          <t>['sesi', 'rujak', 'lobak', 'rebus', 'enaaaaak', 'rabi']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['sesi', 'rujak', 'lobak', 'rebus', 'enaaaaak', 'rabi']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>16029</v>
+        <v>26896</v>
       </c>
       <c r="C85" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>jakh semoga mas wan jg ngabisin nya sangat cepat secepat kilat</t>
+          <t>sepanjang jalan kaki cepat ini yg kepikiran pas sampe rumah langsung ngulek kayak yang lg bunting aja</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['jakh', 'semoga', 'mas', 'wan', 'jg', 'ngabisin', 'nya', 'sangat', 'cepat', 'secepat', 'kilat']</t>
+          <t>['sepanjang', 'jalan', 'kaki', 'cepat', 'ini', 'yg', 'kepikiran', 'pas', 'sampe', 'rumah', 'langsung', 'ngulek', 'kayak', 'yang', 'lg', 'bunting', 'aja']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['sepanjang', 'jalan', 'kaki', 'cepat', 'ini', 'yang', 'kepikiran', 'pas', 'sampai', 'rumah', 'langsung', 'ngulek', 'kayak', 'yang', 'lagi', 'bunting', 'saja']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['jakh', 'semoga', 'mas', 'wan', 'jg', 'ngabisin', 'cepat', 'secepat', 'kilat']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['jakh', 'moga', 'mas', 'wan', 'jg', 'ngabisin', 'cepat', 'cepat', 'kilat']</t>
+          <t>['jalan', 'kaki', 'cepat', 'kepikiran', 'pas', 'rumah', 'langsung', 'ngulek', 'kayak', 'bunting']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['jalan', 'kaki', 'cepat', 'pikir', 'pas', 'rumah', 'langsung', 'ngulek', 'kayak', 'bunting']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>16030</v>
+        <v>26897</v>
       </c>
       <c r="C86" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>pake ava dong spy komennya sah</t>
+          <t>rt kubuan yg saling menyalahkan di indonesia terjadi krn mindset wayang dibikin hanya satu kubu yg benar pandawa padahal</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['pake', 'ava', 'dong', 'spy', 'komennya', 'sah']</t>
+          <t>['rt', 'kubuan', 'yg', 'saling', 'menyalahkan', 'di', 'indonesia', 'terjadi', 'krn', 'mindset', 'wayang', 'dibikin', 'hanya', 'satu', 'kubu', 'yg', 'benar', 'pandawa', 'padahal']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'kubuan', 'yang', 'saling', 'menyalahkan', 'di', 'indonesia', 'terjadi', 'karena', 'mindset', 'wayang', 'dibuat', 'hanya', 'satu', 'kubu', 'yang', 'benar', 'pandawa', 'padahal']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['pake', 'ava', 'spy', 'komennya', 'sah']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['pake', 'ava', 'spy', 'komennya', 'sah']</t>
+          <t>['kubuan', 'menyalahkan', 'indonesia', 'mindset', 'wayang', 'kubu', 'pandawa']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['kubu', 'salah', 'indonesia', 'mindset', 'wayang', 'kubu', 'pandawa']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>16031</v>
+        <v>26898</v>
       </c>
       <c r="C87" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ngakak malah bukan geli lagi aku mah nama ganjar iku bejibun sama kaya nama hartono dll</t>
+          <t>tanggung menit azan azan dari henpon maksudnya</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['ngakak', 'malah', 'bukan', 'geli', 'lagi', 'aku', 'mah', 'nama', 'ganjar', 'iku', 'bejibun', 'sama', 'kaya', 'nama', 'hartono', 'dll']</t>
+          <t>['tanggung', 'menit', 'azan', 'azan', 'dari', 'henpon', 'maksudnya']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['tanggung', 'menit', 'azan', 'azan', 'dari', 'henpon', 'maksudnya']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['ngakak', 'geli', 'mah', 'nama', 'ganjar', 'iku', 'bejibun', 'kaya', 'nama', 'hartono', 'dll']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['ngakak', 'geli', 'mah', 'nama', 'ganjar', 'iku', 'bejibun', 'kaya', 'nama', 'hartono', 'dll']</t>
+          <t>['tanggung', 'menit', 'azan', 'azan', 'henpon', 'maksudnya']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['tanggung', 'menit', 'azan', 'azan', 'henpon', 'maksud']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16032</v>
+        <v>26899</v>
       </c>
       <c r="C88" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>udah sampe kan mas jakh nya</t>
+          <t>ekspektasi tidur awal jam atau jam biar pas sampe subuhnya lumayan bs nyicil trus lanjut lagi tidur stlh subuh</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['udah', 'sampe', 'kan', 'mas', 'jakh', 'nya']</t>
+          <t>['ekspektasi', 'tidur', 'awal', 'jam', 'atau', 'jam', 'biar', 'pas', 'sampe', 'subuhnya', 'lumayan', 'bs', 'nyicil', 'trus', 'lanjut', 'lagi', 'tidur', 'stlh', 'subuh']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['ekspektasi', 'tidur', 'awal', 'jam', 'atau', 'jam', 'biar', 'pas', 'sampai', 'subuhnya', 'lumayan', 'bisa', 'mencicil', 'terus', 'lanjut', 'lagi', 'tidur', 'setelah', 'subuh']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['udah', 'sampe', 'mas', 'jakh']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['udah', 'sampe', 'mas', 'jakh']</t>
+          <t>['ekspektasi', 'tidur', 'jam', 'jam', 'pas', 'subuhnya', 'lumayan', 'mencicil', 'tidur', 'subuh']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['ekspektasi', 'tidur', 'jam', 'jam', 'pas', 'subuh', 'lumayan', 'cicil', 'tidur', 'subuh']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>16033</v>
+        <v>26900</v>
       </c>
       <c r="C89" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>pemandangan jalan kaki cepat sore tadi menjelang maghrib saat hampir sampai rumah</t>
+          <t xml:space="preserve">ayah siapa nabi paling utama yg cakupan kenabiannya lbh luas dr nabi lain stiap nabi ditugaskan membimbing </t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['pemandangan', 'jalan', 'kaki', 'cepat', 'sore', 'tadi', 'menjelang', 'maghrib', 'saat', 'hampir', 'sampai', 'rumah']</t>
+          <t>['ayah', 'siapa', 'nabi', 'paling', 'utama', 'yg', 'cakupan', 'kenabiannya', 'lbh', 'luas', 'dr', 'nabi', 'lain', 'stiap', 'nabi', 'ditugaskan', 'membimbing']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['ayah', 'siapa', 'nabi', 'paling', 'utama', 'yang', 'cakupan', 'kenabiannya', 'lebih', 'luas', 'dari', 'nabi', 'lain', 'setiap', 'nabi', 'ditugaskan', 'membimbing']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['pemandangan', 'jalan', 'kaki', 'cepat', 'sore', 'menjelang', 'maghrib', 'rumah']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['pandang', 'jalan', 'kaki', 'cepat', 'sore', 'jelang', 'maghrib', 'rumah']</t>
+          <t>['ayah', 'nabi', 'utama', 'cakupan', 'kenabiannya', 'luas', 'nabi', 'nabi', 'ditugaskan', 'membimbing']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['ayah', 'nabi', 'utama', 'cakup', 'nabi', 'luas', 'nabi', 'nabi', 'tugas', 'bimbing']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>16034</v>
+        <v>26901</v>
       </c>
       <c r="C90" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>rt aereta persis ada aja yg bikin ketawa pagi</t>
+          <t>rt id love you all</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['rt', 'aereta', 'persis', 'ada', 'aja', 'yg', 'bikin', 'ketawa', 'pagi']</t>
+          <t>['rt', 'id', 'love', 'you', 'all']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'id', 'love', 'kamu', 'all']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['aereta', 'persis', 'ketawa', 'pagi']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['aereta', 'persis', 'ketawa', 'pagi']</t>
+          <t>['id', 'love', 'all']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['id', 'love', 'all']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16035</v>
+        <v>26902</v>
       </c>
       <c r="C91" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>kl tampangnya blm seketjeh julia roberts atau seganteng keanu reeves gak usah jelekin orang kl belum setajir agn</t>
+          <t xml:space="preserve">pernah beberapa hari lalu malah meter lebih ada di postinganku jg soalnya smalam suami telat pulang </t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['kl', 'tampangnya', 'blm', 'seketjeh', 'julia', 'roberts', 'atau', 'seganteng', 'keanu', 'reeves', 'gak', 'usah', 'jelekin', 'orang', 'kl', 'belum', 'setajir', 'agn']</t>
+          <t>['pernah', 'beberapa', 'hari', 'lalu', 'malah', 'meter', 'lebih', 'ada', 'di', 'postinganku', 'jg', 'soalnya', 'smalam', 'suami', 'telat', 'pulang']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['pernah', 'beberapa', 'hari', 'lalu', 'malah', 'meter', 'lebih', 'ada', 'di', 'postinganku', 'juga', 'soalnya', 'smalam', 'suami', 'telat', 'pulang']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['kl', 'tampangnya', 'blm', 'seketjeh', 'julia', 'roberts', 'seganteng', 'keanu', 'reeves', 'jelekin', 'orang', 'kl', 'setajir', 'agn']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['kl', 'tampang', 'blm', 'seketjeh', 'julia', 'roberts', 'ganteng', 'anu', 'reeves', 'jelekin', 'orang', 'kl', 'setajir', 'agn']</t>
+          <t>['meter', 'postinganku', 'smalam', 'suami', 'telat', 'pulang']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['meter', 'postinganku', 'smalam', 'suami', 'telat', 'pulang']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>16036</v>
+        <v>26903</v>
       </c>
       <c r="C92" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>bener jalan kaki olah raga paling asik meski pun langkah kakinya panjang amp cepat seru bs lihat yg hijau ma</t>
+          <t>rt aereta masyaallah wow panjang banget langkahnya teh sehat ya</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['bener', 'jalan', 'kaki', 'olah', 'raga', 'paling', 'asik', 'meski', 'pun', 'langkah', 'kakinya', 'panjang', 'amp', 'cepat', 'seru', 'bs', 'lihat', 'yg', 'hijau', 'ma']</t>
+          <t>['rt', 'aereta', 'masyaallah', 'wow', 'panjang', 'banget', 'langkahnya', 'teh', 'sehat', 'ya']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'aereta', 'masyaallah', 'wah', 'panjang', 'banget', 'langkahnya', 'teh', 'sehat', 'ya']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['bener', 'jalan', 'kaki', 'olah', 'raga', 'asik', 'langkah', 'kakinya', 'cepat', 'seru', 'bs', 'lihat', 'hijau', 'ma']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['bener', 'jalan', 'kaki', 'olah', 'raga', 'asik', 'langkah', 'kaki', 'cepat', 'seru', 'bs', 'lihat', 'hijau', 'ma']</t>
+          <t>['aereta', 'masyaallah', 'banget', 'langkahnya', 'teh', 'sehat']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['aereta', 'masyaallah', 'banget', 'langkah', 'teh', 'sehat']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>16037</v>
+        <v>26904</v>
       </c>
       <c r="C93" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>jangaaaaaaaaaaan ujungnya bakal berakhir di mk heuheuheu</t>
+          <t>rt id aereta with my pleasure lanjutkan mbakku doa selalu menyertai panjenengan bersama keluarga</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['jangaaaaaaaaaaan', 'ujungnya', 'bakal', 'berakhir', 'di', 'mk', 'heuheuheu']</t>
+          <t>['rt', 'id', 'aereta', 'with', 'my', 'pleasure', 'lanjutkan', 'mbakku', 'doa', 'selalu', 'menyertai', 'panjenengan', 'bersama', 'keluarga']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'id', 'aereta', 'dengan', 'my', 'pleasure', 'lanjutkan', 'mbakku', 'doa', 'selalu', 'menyertai', 'panjenengan', 'bersama', 'keluarga']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['jangaaaaaaaaaaan', 'ujungnya', 'mk', 'heuheuheu']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['jangaaaaaaaaaaan', 'ujung', 'mk', 'heuheuheu']</t>
+          <t>['id', 'aereta', 'my', 'pleasure', 'lanjutkan', 'mbakku', 'doa', 'menyertai', 'panjenengan', 'keluarga']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['id', 'aereta', 'my', 'pleasure', 'lanjut', 'mbak', 'doa', 'serta', 'panjenengan', 'keluarga']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16038</v>
+        <v>26905</v>
       </c>
       <c r="C94" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>makanya krn aku sadar pola hidupku msh amburadul tidur tiap hari jam pagi kadang habis subuh krn kerjaan beda</t>
+          <t>id beri kasih romo boedi selamat akhir pekan untuk kalian selamat bersantai olah raga dan ngumpul sm</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['makanya', 'krn', 'aku', 'sadar', 'pola', 'hidupku', 'msh', 'amburadul', 'tidur', 'tiap', 'hari', 'jam', 'pagi', 'kadang', 'habis', 'subuh', 'krn', 'kerjaan', 'beda']</t>
+          <t>['id', 'beri', 'kasih', 'romo', 'boedi', 'selamat', 'akhir', 'pekan', 'untuk', 'kalian', 'selamat', 'bersantai', 'olah', 'raga', 'dan', 'ngumpul', 'sm']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['id', 'beri', 'kasih', 'romo', 'boedi', 'selamat', 'akhir', 'pekan', 'untuk', 'kalian', 'selamat', 'bersantai', 'olah', 'raga', 'dan', 'berkumpul', 'sama']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['sadar', 'pola', 'hidupku', 'msh', 'amburadul', 'tidur', 'jam', 'pagi', 'kadang', 'habis', 'subuh', 'kerjaan', 'beda']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['sadar', 'pola', 'hidup', 'msh', 'amburadul', 'tidur', 'jam', 'pagi', 'kadang', 'habis', 'subuh', 'kerja', 'beda']</t>
+          <t>['id', 'kasih', 'romo', 'boedi', 'selamat', 'pekan', 'selamat', 'bersantai', 'olah', 'raga', 'berkumpul']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['id', 'kasih', 'romo', 'boedi', 'selamat', 'pekan', 'selamat', 'santa', 'olah', 'raga', 'kumpul']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4293,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16039</v>
+        <v>26906</v>
       </c>
       <c r="C95" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>typo di masa pandemi bukan dimana heuheuheu</t>
+          <t>rt id aereta marissa dengan logat aussienya memanggil eyang lanjutkan mbakku sehat selalu bersama keluarga tuhan memb</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['typo', 'di', 'masa', 'pandemi', 'bukan', 'dimana', 'heuheuheu']</t>
+          <t>['rt', 'id', 'aereta', 'marissa', 'dengan', 'logat', 'aussienya', 'memanggil', 'eyang', 'lanjutkan', 'mbakku', 'sehat', 'selalu', 'bersama', 'keluarga', 'tuhan', 'memb']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'id', 'aereta', 'marissa', 'dengan', 'logat', 'aussienya', 'memanggil', 'eyang', 'lanjutkan', 'mbakku', 'sehat', 'selalu', 'bersama', 'keluarga', 'tuhan', 'memb']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['typo', 'pandemi', 'dimana', 'heuheuheu']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['typo', 'pandemi', 'mana', 'heuheuheu']</t>
+          <t>['id', 'aereta', 'marissa', 'logat', 'aussienya', 'memanggil', 'eyang', 'lanjutkan', 'mbakku', 'sehat', 'keluarga', 'tuhan', 'memb']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['id', 'aereta', 'marissa', 'logat', 'aussienya', 'panggil', 'eyang', 'lanjut', 'mbak', 'sehat', 'keluarga', 'tuhan', 'memb']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4334,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16040</v>
+        <v>26907</v>
       </c>
       <c r="C96" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rt aereta alhamdulillah grazie mille th</t>
+          <t>id bolehkah anakku memanggil romo boedi dengan sebutan eyang juga</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rt', 'aereta', 'alhamdulillah', 'grazie', 'mille', 'th']</t>
+          <t>['id', 'bolehkah', 'anakku', 'memanggil', 'romo', 'boedi', 'dengan', 'sebutan', 'eyang', 'juga']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['id', 'bolehkah', 'anakku', 'memanggil', 'romo', 'boedi', 'dengan', 'sebutan', 'eyang', 'juga']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['aereta', 'alhamdulillah', 'grazie', 'mille', 'th']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['aereta', 'alhamdulillah', 'grazie', 'mille', 'th']</t>
+          <t>['id', 'anakku', 'memanggil', 'romo', 'boedi', 'sebutan', 'eyang']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['id', 'anak', 'panggil', 'romo', 'boedi', 'sebut', 'eyang']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4375,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16041</v>
+        <v>26908</v>
       </c>
       <c r="C97" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ini dia nama pemenang ga video youtube kita juventus stadium tour di mana pandemi part yang mendapatka</t>
+          <t>the miracle of endorphin gratis tp efeknya wow badan enteng ap lg yg sering punya keluhan sakit punggung konsist</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['ini', 'dia', 'nama', 'pemenang', 'ga', 'video', 'youtube', 'kita', 'juventus', 'stadium', 'tour', 'di', 'mana', 'pandemi', 'part', 'yang', 'mendapatka']</t>
+          <t>['the', 'miracle', 'of', 'endorphin', 'gratis', 'tp', 'efeknya', 'wow', 'badan', 'enteng', 'ap', 'lg', 'yg', 'sering', 'punya', 'keluhan', 'sakit', 'punggung', 'konsist']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['the', 'miracle', 'of', 'endorphin', 'gratis', 'tetapi', 'efeknya', 'wah', 'badan', 'enteng', 'apa', 'lagi', 'yang', 'sering', 'punya', 'keluhan', 'sakit', 'punggung', 'konsist']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['nama', 'pemenang', 'video', 'youtube', 'juventus', 'stadium', 'tour', 'pandemi', 'part', 'mendapatka']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['nama', 'menang', 'video', 'youtube', 'juventus', 'stadium', 'tour', 'pandemi', 'part', 'mendapatka']</t>
+          <t>['the', 'miracle', 'of', 'endorphin', 'gratis', 'efeknya', 'badan', 'enteng', 'keluhan', 'sakit', 'punggung', 'konsist']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['the', 'miracle', 'of', 'endorphin', 'gratis', 'efek', 'badan', 'enteng', 'keluh', 'sakit', 'punggung', 'konsist']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4416,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16042</v>
+        <v>26909</v>
       </c>
       <c r="C98" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>tolong dmmu dibuka untuk yang belum followan jg agar bisa ngedm spy teamku bisa ngehubungin nuhun</t>
+          <t>rt aereta ya rabb tampang italiano udh bs syahadat dlm bahasa arab italia amp ina anak asperger punya memori luar biasa kit</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['tolong', 'dmmu', 'dibuka', 'untuk', 'yang', 'belum', 'followan', 'jg', 'agar', 'bisa', 'ngedm', 'spy', 'teamku', 'bisa', 'ngehubungin', 'nuhun']</t>
+          <t>['rt', 'aereta', 'ya', 'rabb', 'tampang', 'italiano', 'udh', 'bs', 'syahadat', 'dlm', 'bahasa', 'arab', 'italia', 'amp', 'ina', 'anak', 'asperger', 'punya', 'memori', 'luar', 'biasa', 'kit']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'aereta', 'ya', 'rabi', 'tampang', 'italiano', 'sudah', 'bisa', 'syahadat', 'dalam', 'bahasa', 'arab', 'italia', 'amp', 'ina', 'anak', 'asperger', 'punya', 'memori', 'luar', 'biasa', 'kit']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['tolong', 'dmmu', 'dibuka', 'followan', 'jg', 'ngedm', 'spy', 'teamku', 'ngehubungin', 'nuhun']</t>
+          <t>&lt;FreqDist with 22 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['tolong', 'dmmu', 'buka', 'followan', 'jg', 'ngedm', 'spy', 'teamku', 'ngehubungin', 'nuhun']</t>
+          <t>['aereta', 'rabi', 'tampang', 'italiano', 'syahadat', 'bahasa', 'arab', 'italia', 'ina', 'anak', 'asperger', 'memori', 'kit']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['aereta', 'rabi', 'tampang', 'italiano', 'syahadat', 'bahasa', 'arab', 'italia', 'ina', 'anak', 'asperger', 'memori', 'kit']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4457,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16043</v>
+        <v>26910</v>
       </c>
       <c r="C99" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>tolong dmnya dibuka agar bisa dihubungi oleh team kita</t>
+          <t>id doa yg sama utk romo boedi sehat selalu dlm lindungan tuhan yang maha kuasa tidak kurang suatu apa</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['tolong', 'dmnya', 'dibuka', 'agar', 'bisa', 'dihubungi', 'oleh', 'team', 'kita']</t>
+          <t>['id', 'doa', 'yg', 'sama', 'utk', 'romo', 'boedi', 'sehat', 'selalu', 'dlm', 'lindungan', 'tuhan', 'yang', 'maha', 'kuasa', 'tidak', 'kurang', 'suatu', 'apa']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['id', 'doa', 'yang', 'sama', 'untuk', 'romo', 'boedi', 'sehat', 'selalu', 'dalam', 'lindungan', 'tuhan', 'yang', 'maha', 'kuasa', 'tidak', 'kurang', 'suatu', 'apa']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['tolong', 'dmnya', 'dibuka', 'dihubungi', 'team']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['tolong', 'dmnya', 'buka', 'hubung', 'team']</t>
+          <t>['id', 'doa', 'romo', 'boedi', 'sehat', 'lindungan', 'tuhan', 'maha', 'kuasa']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['id', 'doa', 'romo', 'boedi', 'sehat', 'lindung', 'tuhan', 'maha', 'kuasa']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4498,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16044</v>
+        <v>26911</v>
       </c>
       <c r="C100" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>saya juga paling geli pas dengar ada orang yang baper dengan nama ganjar dan saya juga paling geli kalau ada sekelo</t>
+          <t>rt id aereta sehat selalu ya salam untuk papa dan mama tuhan memberkati</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['saya', 'juga', 'paling', 'geli', 'pas', 'dengar', 'ada', 'orang', 'yang', 'baper', 'dengan', 'nama', 'ganjar', 'dan', 'saya', 'juga', 'paling', 'geli', 'kalau', 'ada', 'sekelo']</t>
+          <t>['rt', 'id', 'aereta', 'sehat', 'selalu', 'ya', 'salam', 'untuk', 'papa', 'dan', 'mama', 'tuhan', 'memberkati']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'id', 'aereta', 'sehat', 'selalu', 'ya', 'salam', 'untuk', 'papa', 'dan', 'mama', 'tuhan', 'memberkati']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['geli', 'pas', 'dengar', 'orang', 'baper', 'nama', 'ganjar', 'geli', 'sekelo']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['geli', 'pas', 'dengar', 'orang', 'baper', 'nama', 'ganjar', 'geli', 'sekelo']</t>
+          <t>['id', 'aereta', 'sehat', 'salam', 'papa', 'mama', 'tuhan', 'memberkati']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['id', 'aereta', 'sehat', 'salam', 'papa', 'mama', 'tuhan', 'kati']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4539,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16045</v>
+        <v>26912</v>
       </c>
       <c r="C101" t="n">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>langsing itu bonus neng yg penting manfaatnya overall langsing jangan dipikirin apa lagi ada ora</t>
+          <t>terutama masa pandemi org mikir berkali ngutangin sering kali yg ngutang pas nerima duitnya doang semangat baya</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['langsing', 'itu', 'bonus', 'neng', 'yg', 'penting', 'manfaatnya', 'overall', 'langsing', 'jangan', 'dipikirin', 'apa', 'lagi', 'ada', 'ora']</t>
+          <t>['terutama', 'masa', 'pandemi', 'org', 'mikir', 'berkali', 'ngutangin', 'sering', 'kali', 'yg', 'ngutang', 'pas', 'nerima', 'duitnya', 'doang', 'semangat', 'baya']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['terutama', 'masa', 'pandemi', 'orang', 'pikir', 'berkali', 'ngutangin', 'sering', 'kali', 'yang', 'berutang', 'pas', 'menerima', 'duitnya', 'doang', 'semangat', 'baya']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['langsing', 'bonus', 'neng', 'manfaatnya', 'overall', 'langsing', 'dipikirin', 'ora']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['langsing', 'bonus', 'neng', 'manfaat', 'overall', 'langsing', 'dipikirin', 'ora']</t>
+          <t>['pandemi', 'orang', 'pikir', 'berkali', 'ngutangin', 'kali', 'berutang', 'pas', 'menerima', 'duitnya', 'doang', 'semangat', 'baya']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['pandemi', 'orang', 'pikir', 'kali', 'ngutangin', 'kali', 'utang', 'pas', 'terima', 'duit', 'doang', 'semangat', 'baya']</t>
         </is>
       </c>
     </row>
